--- a/notebooks/test_output/shap_per_class_20hz_no_load.xlsx
+++ b/notebooks/test_output/shap_per_class_20hz_no_load.xlsx
@@ -501,22 +501,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1006748095789323</v>
+        <v>0.1038791637418082</v>
       </c>
       <c r="E2" t="n">
-        <v>24.61035946433884</v>
+        <v>62.14369046855232</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01144166650334553</v>
+        <v>0.01125479478625877</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1487977782101901</v>
+        <v>0.1381728137856948</v>
       </c>
       <c r="E3" t="n">
-        <v>26.32853606381471</v>
+        <v>14.00465783302275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01296630295154244</v>
+        <v>0.01265128238827629</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.09914391546126436</v>
+        <v>0.09580751883647999</v>
       </c>
       <c r="E4" t="n">
-        <v>13.88759379949971</v>
+        <v>18.39925332062887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01070886740167799</v>
+        <v>0.01044078923413303</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1006748095789323</v>
+        <v>0.1038791637418082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004090739252355017</v>
+        <v>0.001671586311042647</v>
       </c>
       <c r="D2" t="n">
-        <v>24.61035946433884</v>
+        <v>62.14369046855232</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -663,17 +663,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02730452976703314</v>
+        <v>0.05306086258703378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005641288985985552</v>
+        <v>0.002560255071461346</v>
       </c>
       <c r="D3" t="n">
-        <v>4.840113923205393</v>
+        <v>20.7247535337221</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02454503859208213</v>
+        <v>0.02141608512548108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007094674885112767</v>
+        <v>0.003941069506174178</v>
       </c>
       <c r="D4" t="n">
-        <v>3.459637600478432</v>
+        <v>5.434065740599801</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01657435372142739</v>
+        <v>0.01660912223648308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003464598705291619</v>
+        <v>0.003721633133293655</v>
       </c>
       <c r="D5" t="n">
-        <v>4.783903502901437</v>
+        <v>4.462846555033341</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -735,17 +735,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01156411379447194</v>
+        <v>0.01555656720518086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005255496875871193</v>
+        <v>0.00290025335959255</v>
       </c>
       <c r="D6" t="n">
-        <v>2.200380299674708</v>
+        <v>5.36384640854352</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -759,17 +759,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01154099728219461</v>
+        <v>0.01215328726476817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001828222583243267</v>
+        <v>0.001543564896053495</v>
       </c>
       <c r="D7" t="n">
-        <v>6.312652661359414</v>
+        <v>7.873467815420462</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -783,17 +783,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01127839263540848</v>
+        <v>0.01104549615977261</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001607102081407985</v>
+        <v>0.003232244413652157</v>
       </c>
       <c r="D8" t="n">
-        <v>7.017800914997494</v>
+        <v>3.417273130827652</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -807,17 +807,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01050052659408995</v>
+        <v>0.009368886033857502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002099414242511145</v>
+        <v>0.0004384733832595614</v>
       </c>
       <c r="D9" t="n">
-        <v>5.001622054973582</v>
+        <v>21.36657030013738</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -831,17 +831,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01029950173043634</v>
+        <v>0.008910614024237571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002839921356701412</v>
+        <v>0.00258364671517437</v>
       </c>
       <c r="D10" t="n">
-        <v>3.626672773668458</v>
+        <v>3.448838219065104</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -855,17 +855,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008942947046186391</v>
+        <v>0.008391166846210657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00150714091642534</v>
+        <v>0.003902563341999071</v>
       </c>
       <c r="D11" t="n">
-        <v>5.933677210904179</v>
+        <v>2.150162498140863</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -879,17 +879,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.008749365315592358</v>
+        <v>0.007712920387960916</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001010858072095209</v>
+        <v>0.003453958558045075</v>
       </c>
       <c r="D12" t="n">
-        <v>8.655298903107804</v>
+        <v>2.233060393672599</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -903,17 +903,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008655197274203425</v>
+        <v>0.007033781534515798</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003823262084237658</v>
+        <v>0.002001348858767809</v>
       </c>
       <c r="D13" t="n">
-        <v>2.263819336815321</v>
+        <v>3.514502910710545</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -927,17 +927,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00829279693620264</v>
+        <v>0.006722450194273939</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005466571875029606</v>
+        <v>0.003389692370362434</v>
       </c>
       <c r="D14" t="n">
-        <v>1.516998578962604</v>
+        <v>1.983197773660335</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -951,17 +951,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008015826496496027</v>
+        <v>0.006360307201701354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001703878010538561</v>
+        <v>0.001735575875826212</v>
       </c>
       <c r="D15" t="n">
-        <v>4.704432713252325</v>
+        <v>3.664645633667411</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -975,17 +975,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007758323769459843</v>
+        <v>0.006305974482924867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001505205513673398</v>
+        <v>0.0006509409197390254</v>
       </c>
       <c r="D16" t="n">
-        <v>5.154294317978474</v>
+        <v>9.687327095955272</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -999,17 +999,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.007114435741642729</v>
+        <v>0.00552782904312565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002999959230498204</v>
+        <v>0.0008364096683202491</v>
       </c>
       <c r="D17" t="n">
-        <v>2.371502903868529</v>
+        <v>6.608918049747666</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1023,17 +1023,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.007100076933750314</v>
+        <v>0.005456187152231808</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001865164160996387</v>
+        <v>0.001925021129689462</v>
       </c>
       <c r="D18" t="n">
-        <v>3.806656280267903</v>
+        <v>2.834337101401564</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1047,17 +1047,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006594737462426248</v>
+        <v>0.005446641740005759</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002794149184760292</v>
+        <v>0.001530643668843852</v>
       </c>
       <c r="D19" t="n">
-        <v>2.36018674182731</v>
+        <v>3.558376300838693</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1071,17 +1071,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006585588102902036</v>
+        <v>0.005345698624195263</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00127362720436306</v>
+        <v>0.00162213322095091</v>
       </c>
       <c r="D20" t="n">
-        <v>5.170693883895655</v>
+        <v>3.295454159134964</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1095,17 +1095,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.006542859952849342</v>
+        <v>0.005306081458700429</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002011450971384642</v>
+        <v>0.001230224329095295</v>
       </c>
       <c r="D21" t="n">
-        <v>3.252789910383094</v>
+        <v>4.313065676359789</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1119,17 +1119,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.006148916874075484</v>
+        <v>0.00524366892409498</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00106979228475205</v>
+        <v>0.001539564966993041</v>
       </c>
       <c r="D22" t="n">
-        <v>5.747713350136125</v>
+        <v>3.405919839250466</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1143,17 +1143,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.005641100084394611</v>
+        <v>0.005186104213713285</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0008971934566432833</v>
+        <v>0.001279507926391893</v>
       </c>
       <c r="D23" t="n">
-        <v>6.287425714452458</v>
+        <v>4.053170422033521</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1167,17 +1167,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005488733003085011</v>
+        <v>0.005083159208032665</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001247150621703238</v>
+        <v>0.001618394482815594</v>
       </c>
       <c r="D24" t="n">
-        <v>4.400983247521951</v>
+        <v>3.140845976396035</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1191,17 +1191,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005035773766506807</v>
+        <v>0.00500351238997001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0008920851742326649</v>
+        <v>0.001374542450110301</v>
       </c>
       <c r="D25" t="n">
-        <v>5.644883989915453</v>
+        <v>3.640102921913605</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1215,17 +1215,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004913853227355395</v>
+        <v>0.004784416699137123</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00132750926386483</v>
+        <v>0.001409672302372992</v>
       </c>
       <c r="D26" t="n">
-        <v>3.701530637717157</v>
+        <v>3.393968053002625</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1239,17 +1239,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004701491591594433</v>
+        <v>0.004309547598843716</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0009183236223021493</v>
+        <v>0.0009435332219684809</v>
       </c>
       <c r="D27" t="n">
-        <v>5.119589958830399</v>
+        <v>4.567408782665895</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1263,17 +1263,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004602506976080066</v>
+        <v>0.004289780432605307</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001094880638692413</v>
+        <v>0.001213302858874627</v>
       </c>
       <c r="D28" t="n">
-        <v>4.203622547706381</v>
+        <v>3.535592985130124</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1287,17 +1287,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003946210928262146</v>
+        <v>0.00395092722895596</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0009917838849310735</v>
+        <v>0.001065696572943252</v>
       </c>
       <c r="D29" t="n">
-        <v>3.978861927079128</v>
+        <v>3.707331200974346</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1311,17 +1311,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003192669186970146</v>
+        <v>0.003657730633566356</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005642884794197006</v>
+        <v>0.0006818610843976241</v>
       </c>
       <c r="D30" t="n">
-        <v>5.657766773097359</v>
+        <v>5.364255380909213</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1335,17 +1335,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002385987237599791</v>
+        <v>0.003584899869797981</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001535102716050415</v>
+        <v>0.0006856006896795352</v>
       </c>
       <c r="D31" t="n">
-        <v>1.554274948447129</v>
+        <v>5.228768926391182</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1359,22 +1359,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>current_phase_a_env_peak_sp_mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.002733108222322103</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0005913772385317483</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.621520459433074</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>current_phase_a_env_harmonic_count</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.001972249481030748</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0007437608732062539</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.651689588930469</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>frequency_hz</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>20hz</t>
         </is>
@@ -1391,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,13 +1486,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1487977782101901</v>
+        <v>0.1381728137856948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005651568114694121</v>
+        <v>0.00986619418957225</v>
       </c>
       <c r="D2" t="n">
-        <v>26.32853606381471</v>
+        <v>14.00465783302275</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -1458,17 +1506,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03568870777373015</v>
+        <v>0.07003859222492562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01082624128101136</v>
+        <v>0.003619423733955863</v>
       </c>
       <c r="D3" t="n">
-        <v>3.296497268295088</v>
+        <v>19.35070438446096</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -1486,13 +1534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02881103543553891</v>
+        <v>0.02868701528541857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004987887010296219</v>
+        <v>0.00393958416764968</v>
       </c>
       <c r="D4" t="n">
-        <v>5.776188918108374</v>
+        <v>7.281718386371999</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -1506,17 +1554,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0175269086554339</v>
+        <v>0.01786646750826076</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004804804221342093</v>
+        <v>0.003376157244314418</v>
       </c>
       <c r="D5" t="n">
-        <v>3.647780714930168</v>
+        <v>5.291937932976665</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -1534,13 +1582,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01584598480446278</v>
+        <v>0.01775287915489127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00314805740720263</v>
+        <v>0.003563525456683204</v>
       </c>
       <c r="D6" t="n">
-        <v>5.033559563625579</v>
+        <v>4.981816336805847</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -1554,17 +1602,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01236970590594634</v>
+        <v>0.01145518842356034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002241663469358371</v>
+        <v>0.001845351191928729</v>
       </c>
       <c r="D7" t="n">
-        <v>5.518067673561256</v>
+        <v>6.20755897201222</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -1578,17 +1626,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01170731778569422</v>
+        <v>0.01025799421312931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001838066383684527</v>
+        <v>0.001130808490442395</v>
       </c>
       <c r="D8" t="n">
-        <v>6.369331486772192</v>
+        <v>9.071300389787767</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1602,17 +1650,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0102133841516479</v>
+        <v>0.009473702100406095</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002597979082959819</v>
+        <v>0.001624317574337773</v>
       </c>
       <c r="D9" t="n">
-        <v>3.931265230726861</v>
+        <v>5.832383966188874</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -1626,17 +1674,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009873274747267296</v>
+        <v>0.007618569800966828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001072537301492663</v>
+        <v>0.002193074753341046</v>
       </c>
       <c r="D10" t="n">
-        <v>9.20544458368099</v>
+        <v>3.4739057801393</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -1650,17 +1698,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008702815778118385</v>
+        <v>0.007561864426330683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001909085049180878</v>
+        <v>0.001680494238562643</v>
       </c>
       <c r="D11" t="n">
-        <v>4.558607902656518</v>
+        <v>4.499759210841649</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -1674,17 +1722,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.008316188655047001</v>
+        <v>0.007427916621901645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002360165726836334</v>
+        <v>0.001127288294435055</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5235463870287</v>
+        <v>6.589131429161031</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1698,17 +1746,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008165974472033773</v>
+        <v>0.007205544442144221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003168432020635266</v>
+        <v>0.001912469212073788</v>
       </c>
       <c r="D13" t="n">
-        <v>2.577283857129414</v>
+        <v>3.767645889510569</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1722,17 +1770,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.007454048442702692</v>
+        <v>0.0067671304084737</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002773842111949005</v>
+        <v>0.001653019385462644</v>
       </c>
       <c r="D14" t="n">
-        <v>2.687255175065991</v>
+        <v>4.093775021779024</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1746,17 +1794,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007094260280800219</v>
+        <v>0.006498712024493323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002140387773029629</v>
+        <v>0.001330910287400351</v>
       </c>
       <c r="D15" t="n">
-        <v>3.314458821716414</v>
+        <v>4.882870962307649</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1770,17 +1818,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006984141384498972</v>
+        <v>0.006343095665765035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002961702920443478</v>
+        <v>0.001064937053145722</v>
       </c>
       <c r="D16" t="n">
-        <v>2.358142592514735</v>
+        <v>5.956254488923475</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1794,17 +1842,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006928821472858264</v>
+        <v>0.006272301581661639</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001782976906551841</v>
+        <v>0.002073967237731889</v>
       </c>
       <c r="D17" t="n">
-        <v>3.886075353328347</v>
+        <v>3.024286606212254</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1818,17 +1866,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006355993069508753</v>
+        <v>0.005876819645801497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00246583536691849</v>
+        <v>0.001507717036103541</v>
       </c>
       <c r="D18" t="n">
-        <v>2.577612187195538</v>
+        <v>3.897800798869482</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1842,17 +1890,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005739152871740366</v>
+        <v>0.005783858212325126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001546898869323791</v>
+        <v>0.002156618198028235</v>
       </c>
       <c r="D19" t="n">
-        <v>3.710078198885209</v>
+        <v>2.681898631212001</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1866,17 +1914,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005381970800238922</v>
+        <v>0.004963600958437136</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001149325906344795</v>
+        <v>0.001093228487060403</v>
       </c>
       <c r="D20" t="n">
-        <v>4.682678728236269</v>
+        <v>4.540272792429498</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1890,17 +1938,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005353309829787807</v>
+        <v>0.004775759975391506</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002444903017833809</v>
+        <v>0.0009542592134344648</v>
       </c>
       <c r="D21" t="n">
-        <v>2.189570668052165</v>
+        <v>5.004625432904092</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1914,17 +1962,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.005126772634100816</v>
+        <v>0.004314787088955831</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002099678055119104</v>
+        <v>0.001398947772914348</v>
       </c>
       <c r="D22" t="n">
-        <v>2.441683002197201</v>
+        <v>3.084286868764555</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -1938,17 +1986,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.004556758850859903</v>
+        <v>0.004170834394730998</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002096209206056697</v>
+        <v>0.001651876610003499</v>
       </c>
       <c r="D23" t="n">
-        <v>2.173798826808695</v>
+        <v>2.524891460148202</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -1962,17 +2010,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004527856320399134</v>
+        <v>0.003906802646875734</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001753141578184617</v>
+        <v>0.0005710106386170473</v>
       </c>
       <c r="D24" t="n">
-        <v>2.582695288155126</v>
+        <v>6.841788864825629</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -1986,17 +2034,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.004210243000209347</v>
+        <v>0.003835926278569259</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0008744728839699766</v>
+        <v>0.0007980455276422125</v>
       </c>
       <c r="D25" t="n">
-        <v>4.814551636614875</v>
+        <v>4.806590701654781</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -2010,17 +2058,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003431547776650316</v>
+        <v>0.003657288402764913</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001101319272422452</v>
+        <v>0.001380062528842225</v>
       </c>
       <c r="D26" t="n">
-        <v>3.115823634744933</v>
+        <v>2.650069707447258</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -2034,17 +2082,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00339738693170798</v>
+        <v>0.00322407269439496</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00064171885719461</v>
+        <v>0.0005633050883105825</v>
       </c>
       <c r="D27" t="n">
-        <v>5.29411587716351</v>
+        <v>5.723391333372867</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -2058,17 +2106,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.002978532571680262</v>
+        <v>0.003162473259393605</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0004297051859267864</v>
+        <v>0.0005844236472462228</v>
       </c>
       <c r="D28" t="n">
-        <v>6.931411011822457</v>
+        <v>5.411175886766235</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2082,17 +2130,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002584187011948621</v>
+        <v>0.00270593412365213</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0008981003793201095</v>
+        <v>0.0004739640570769355</v>
       </c>
       <c r="D29" t="n">
-        <v>2.87736014575949</v>
+        <v>5.709034246177957</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -2106,17 +2154,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002570751415735839</v>
+        <v>0.002498923354533598</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0009668603257108159</v>
+        <v>0.0005020851233549058</v>
       </c>
       <c r="D30" t="n">
-        <v>2.658837847615081</v>
+        <v>4.976991885195496</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -2130,17 +2178,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001260580457276767</v>
+        <v>0.002387401863072318</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002265079565577446</v>
+        <v>0.0008239181954860653</v>
       </c>
       <c r="D31" t="n">
-        <v>5.565035445458896</v>
+        <v>2.89758485769977</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -2154,22 +2202,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>current_phase_a_env_peak_sp_mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.001745994022325809</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0005022951762638974</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.475962631546746</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>current_phase_a_env_harmonic_count</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.001082054223869151</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0003118526291802096</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.469650168452493</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>frequency_hz</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>20hz</t>
         </is>
@@ -2186,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2233,13 +2329,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09914391546126436</v>
+        <v>0.09580751883647999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007139017602091582</v>
+        <v>0.005207131679443184</v>
       </c>
       <c r="D2" t="n">
-        <v>13.88759379949971</v>
+        <v>18.39925332062887</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -2253,17 +2349,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02373732371691059</v>
+        <v>0.06883983664572194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004704969144109938</v>
+        <v>0.005315313341495158</v>
       </c>
       <c r="D3" t="n">
-        <v>5.045149614877003</v>
+        <v>12.95120394808528</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -2277,17 +2373,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01762819736140197</v>
+        <v>0.01162861972733159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003494387604187099</v>
+        <v>0.002730045650388578</v>
       </c>
       <c r="D4" t="n">
-        <v>5.044702795205473</v>
+        <v>4.259480837204343</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -2301,17 +2397,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01549540954716639</v>
+        <v>0.01106495517648072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003272774997485124</v>
+        <v>0.00184563735497609</v>
       </c>
       <c r="D5" t="n">
-        <v>4.734624962859883</v>
+        <v>5.995162156328648</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -2325,17 +2421,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01477036983620354</v>
+        <v>0.01098568474091404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0058814143655795</v>
+        <v>0.001406983609365708</v>
       </c>
       <c r="D6" t="n">
-        <v>2.511359309939576</v>
+        <v>7.807913744445885</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -2349,17 +2445,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01025159283801389</v>
+        <v>0.01085144893671105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00298468539754608</v>
+        <v>0.003766330740308371</v>
       </c>
       <c r="D7" t="n">
-        <v>3.434719953815862</v>
+        <v>2.881164951587088</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -2373,17 +2469,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01013733182148778</v>
+        <v>0.01083008850051977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004748742517095873</v>
+        <v>0.003208914311097468</v>
       </c>
       <c r="D8" t="n">
-        <v>2.134735761653741</v>
+        <v>3.374990324036601</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -2397,17 +2493,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009926967072957807</v>
+        <v>0.009233885115480822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00143939254431343</v>
+        <v>0.003644098755013983</v>
       </c>
       <c r="D9" t="n">
-        <v>6.896588527077251</v>
+        <v>2.533921388261474</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -2421,17 +2517,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00990255545536861</v>
+        <v>0.007926947306588933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00171359430338396</v>
+        <v>0.001811338628949501</v>
       </c>
       <c r="D10" t="n">
-        <v>5.77878769084171</v>
+        <v>4.376268146229917</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -2445,17 +2541,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008596150733370448</v>
+        <v>0.007889939181013888</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002121318025616577</v>
+        <v>0.003649263893234652</v>
       </c>
       <c r="D11" t="n">
-        <v>4.052249642471925</v>
+        <v>2.162057278200181</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -2469,17 +2565,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00828544619649779</v>
+        <v>0.007825580089121442</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001653342085796558</v>
+        <v>0.001475193874154406</v>
       </c>
       <c r="D12" t="n">
-        <v>5.01130174732625</v>
+        <v>5.30474480593884</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -2493,17 +2589,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008035735542304157</v>
+        <v>0.007135828900881447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001920851748282058</v>
+        <v>0.002298562041899238</v>
       </c>
       <c r="D13" t="n">
-        <v>4.183401303863226</v>
+        <v>3.104461713971486</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -2517,17 +2613,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.007747140134994628</v>
+        <v>0.006925811353594484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007756523671975288</v>
+        <v>0.001532922726344647</v>
       </c>
       <c r="D14" t="n">
-        <v>9.987773627570814</v>
+        <v>4.518013892305254</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -2541,17 +2637,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007008522832879028</v>
+        <v>0.005888849271633132</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001424196576373573</v>
+        <v>0.002272247512933409</v>
       </c>
       <c r="D15" t="n">
-        <v>4.921001594252345</v>
+        <v>2.591629354557981</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -2565,17 +2661,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0065671806197241</v>
+        <v>0.00557045929780389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001620033212862036</v>
+        <v>0.001100598510436407</v>
       </c>
       <c r="D16" t="n">
-        <v>4.053707066320931</v>
+        <v>5.061254065348925</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -2589,17 +2685,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00642556088042086</v>
+        <v>0.005519746672847824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002669033018035977</v>
+        <v>0.001717949585634026</v>
       </c>
       <c r="D17" t="n">
-        <v>2.407439983919453</v>
+        <v>3.212966544152272</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2613,17 +2709,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006257230450912477</v>
+        <v>0.005198687823994019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002003892141635042</v>
+        <v>0.001260910346738433</v>
       </c>
       <c r="D18" t="n">
-        <v>3.122522962027986</v>
+        <v>4.122931188668052</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -2637,17 +2733,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006183697428380519</v>
+        <v>0.005008260739369699</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0008176534803916195</v>
+        <v>0.001411642645308348</v>
       </c>
       <c r="D19" t="n">
-        <v>7.5626435283851</v>
+        <v>3.547799634715198</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -2661,17 +2757,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005674427404661751</v>
+        <v>0.004777070859794964</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001524336077611938</v>
+        <v>0.002075500295378953</v>
       </c>
       <c r="D20" t="n">
-        <v>3.722532230706683</v>
+        <v>2.301636792855683</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -2685,17 +2781,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005302689985425484</v>
+        <v>0.004516727793774483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001548590501641404</v>
+        <v>0.001091879304951156</v>
       </c>
       <c r="D21" t="n">
-        <v>3.4241820145383</v>
+        <v>4.136616938451037</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -2709,17 +2805,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.005286676359457345</v>
+        <v>0.004210188979953865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001297155993841589</v>
+        <v>0.001433967176815923</v>
       </c>
       <c r="D22" t="n">
-        <v>4.075558860281807</v>
+        <v>2.936022307762518</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -2733,17 +2829,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.005240733365800014</v>
+        <v>0.004154164687235682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001063687062066407</v>
+        <v>0.00213142030576269</v>
       </c>
       <c r="D23" t="n">
-        <v>4.926904052568337</v>
+        <v>1.949003294174893</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2757,17 +2853,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005112700394980541</v>
+        <v>0.004100813712013353</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007941891249257768</v>
+        <v>0.000949273202377713</v>
       </c>
       <c r="D24" t="n">
-        <v>6.437554807754738</v>
+        <v>4.319905484203088</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -2781,17 +2877,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005099707248449488</v>
+        <v>0.004011778613275377</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002502257302009495</v>
+        <v>0.00112934657424561</v>
       </c>
       <c r="D25" t="n">
-        <v>2.038034563435356</v>
+        <v>3.552269234325018</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -2805,17 +2901,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005077944942795445</v>
+        <v>0.003807199823839342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001513713568497286</v>
+        <v>0.001580814103982577</v>
       </c>
       <c r="D26" t="n">
-        <v>3.354605192437122</v>
+        <v>2.408363975630083</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -2829,17 +2925,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.005073733483016064</v>
+        <v>0.003583579345901295</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001160119132548568</v>
+        <v>0.0006184110054863562</v>
       </c>
       <c r="D27" t="n">
-        <v>4.373421320668075</v>
+        <v>5.794724490451282</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -2853,17 +2949,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004213350499396364</v>
+        <v>0.003432834086558729</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0009563892966703802</v>
+        <v>0.000896562875234609</v>
       </c>
       <c r="D28" t="n">
-        <v>4.405430361633234</v>
+        <v>3.828839998823798</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -2877,17 +2973,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003995630442598336</v>
+        <v>0.003417471488377187</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001064130652783636</v>
+        <v>0.0005249456873247632</v>
       </c>
       <c r="D29" t="n">
-        <v>3.754795413694942</v>
+        <v>6.510018980445815</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -2901,17 +2997,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003581913298373712</v>
+        <v>0.003287266896196297</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007988634124625771</v>
+        <v>0.0007126240416038709</v>
       </c>
       <c r="D30" t="n">
-        <v>4.483705731715668</v>
+        <v>4.612840117485683</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -2925,17 +3021,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002215054096804359</v>
+        <v>0.00281144950324738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00138026581823313</v>
+        <v>0.0008424167958572412</v>
       </c>
       <c r="D31" t="n">
-        <v>1.60479091754271</v>
+        <v>3.337322028540758</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -2949,22 +3045,70 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>current_phase_a_env_peak_sp_mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.002464912567388859</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0004899207273495931</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.031145077842821</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>current_phase_a_env_harmonic_count</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.001838438052344407</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0005519217793230294</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.330915379794471</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>20hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>frequency_hz</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>20hz</t>
         </is>
@@ -3044,13 +3188,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1006748095789323</v>
+        <v>0.1038791637418082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004090739252355017</v>
+        <v>0.001671586311042647</v>
       </c>
       <c r="G2" t="n">
-        <v>24.61035946433884</v>
+        <v>62.14369046855232</v>
       </c>
     </row>
     <row r="3">
@@ -3067,17 +3211,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02730452976703314</v>
+        <v>0.05306086258703378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005641288985985552</v>
+        <v>0.002560255071461346</v>
       </c>
       <c r="G3" t="n">
-        <v>4.840113923205393</v>
+        <v>20.7247535337221</v>
       </c>
     </row>
     <row r="4">
@@ -3098,13 +3242,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.02454503859208213</v>
+        <v>0.02141608512548108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007094674885112767</v>
+        <v>0.003941069506174178</v>
       </c>
       <c r="G4" t="n">
-        <v>3.459637600478432</v>
+        <v>5.434065740599801</v>
       </c>
     </row>
     <row r="5">
@@ -3125,13 +3269,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01657435372142739</v>
+        <v>0.01660912223648308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003464598705291619</v>
+        <v>0.003721633133293655</v>
       </c>
       <c r="G5" t="n">
-        <v>4.783903502901437</v>
+        <v>4.462846555033341</v>
       </c>
     </row>
     <row r="6">
@@ -3148,17 +3292,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01156411379447194</v>
+        <v>0.01555656720518086</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005255496875871193</v>
+        <v>0.00290025335959255</v>
       </c>
       <c r="G6" t="n">
-        <v>2.200380299674708</v>
+        <v>5.36384640854352</v>
       </c>
     </row>
     <row r="7">
@@ -3175,17 +3319,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01154099728219461</v>
+        <v>0.01215328726476817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001828222583243267</v>
+        <v>0.001543564896053495</v>
       </c>
       <c r="G7" t="n">
-        <v>6.312652661359414</v>
+        <v>7.873467815420462</v>
       </c>
     </row>
     <row r="8">
@@ -3202,17 +3346,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.01127839263540848</v>
+        <v>0.01104549615977261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001607102081407985</v>
+        <v>0.003232244413652157</v>
       </c>
       <c r="G8" t="n">
-        <v>7.017800914997494</v>
+        <v>3.417273130827652</v>
       </c>
     </row>
     <row r="9">
@@ -3229,17 +3373,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.01050052659408995</v>
+        <v>0.009368886033857502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002099414242511145</v>
+        <v>0.0004384733832595614</v>
       </c>
       <c r="G9" t="n">
-        <v>5.001622054973582</v>
+        <v>21.36657030013738</v>
       </c>
     </row>
     <row r="10">
@@ -3256,17 +3400,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01029950173043634</v>
+        <v>0.008910614024237571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002839921356701412</v>
+        <v>0.00258364671517437</v>
       </c>
       <c r="G10" t="n">
-        <v>3.626672773668458</v>
+        <v>3.448838219065104</v>
       </c>
     </row>
     <row r="11">
@@ -3283,17 +3427,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.008942947046186391</v>
+        <v>0.008391166846210657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00150714091642534</v>
+        <v>0.003902563341999071</v>
       </c>
       <c r="G11" t="n">
-        <v>5.933677210904179</v>
+        <v>2.150162498140863</v>
       </c>
     </row>
     <row r="12">
@@ -3310,17 +3454,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.008749365315592358</v>
+        <v>0.007712920387960916</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001010858072095209</v>
+        <v>0.003453958558045075</v>
       </c>
       <c r="G12" t="n">
-        <v>8.655298903107804</v>
+        <v>2.233060393672599</v>
       </c>
     </row>
     <row r="13">
@@ -3337,17 +3481,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.008655197274203425</v>
+        <v>0.007033781534515798</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003823262084237658</v>
+        <v>0.002001348858767809</v>
       </c>
       <c r="G13" t="n">
-        <v>2.263819336815321</v>
+        <v>3.514502910710545</v>
       </c>
     </row>
     <row r="14">
@@ -3364,17 +3508,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.00829279693620264</v>
+        <v>0.006722450194273939</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005466571875029606</v>
+        <v>0.003389692370362434</v>
       </c>
       <c r="G14" t="n">
-        <v>1.516998578962604</v>
+        <v>1.983197773660335</v>
       </c>
     </row>
     <row r="15">
@@ -3391,17 +3535,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.008015826496496027</v>
+        <v>0.006360307201701354</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001703878010538561</v>
+        <v>0.001735575875826212</v>
       </c>
       <c r="G15" t="n">
-        <v>4.704432713252325</v>
+        <v>3.664645633667411</v>
       </c>
     </row>
     <row r="16">
@@ -3418,17 +3562,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.007758323769459843</v>
+        <v>0.006305974482924867</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001505205513673398</v>
+        <v>0.0006509409197390254</v>
       </c>
       <c r="G16" t="n">
-        <v>5.154294317978474</v>
+        <v>9.687327095955272</v>
       </c>
     </row>
     <row r="17">
@@ -3449,13 +3593,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1487977782101901</v>
+        <v>0.1381728137856948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005651568114694121</v>
+        <v>0.00986619418957225</v>
       </c>
       <c r="G17" t="n">
-        <v>26.32853606381471</v>
+        <v>14.00465783302275</v>
       </c>
     </row>
     <row r="18">
@@ -3472,17 +3616,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.03568870777373015</v>
+        <v>0.07003859222492562</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01082624128101136</v>
+        <v>0.003619423733955863</v>
       </c>
       <c r="G18" t="n">
-        <v>3.296497268295088</v>
+        <v>19.35070438446096</v>
       </c>
     </row>
     <row r="19">
@@ -3503,13 +3647,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.02881103543553891</v>
+        <v>0.02868701528541857</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004987887010296219</v>
+        <v>0.00393958416764968</v>
       </c>
       <c r="G19" t="n">
-        <v>5.776188918108374</v>
+        <v>7.281718386371999</v>
       </c>
     </row>
     <row r="20">
@@ -3526,17 +3670,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.0175269086554339</v>
+        <v>0.01786646750826076</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004804804221342093</v>
+        <v>0.003376157244314418</v>
       </c>
       <c r="G20" t="n">
-        <v>3.647780714930168</v>
+        <v>5.291937932976665</v>
       </c>
     </row>
     <row r="21">
@@ -3557,13 +3701,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.01584598480446278</v>
+        <v>0.01775287915489127</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00314805740720263</v>
+        <v>0.003563525456683204</v>
       </c>
       <c r="G21" t="n">
-        <v>5.033559563625579</v>
+        <v>4.981816336805847</v>
       </c>
     </row>
     <row r="22">
@@ -3580,17 +3724,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.01236970590594634</v>
+        <v>0.01145518842356034</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002241663469358371</v>
+        <v>0.001845351191928729</v>
       </c>
       <c r="G22" t="n">
-        <v>5.518067673561256</v>
+        <v>6.20755897201222</v>
       </c>
     </row>
     <row r="23">
@@ -3607,17 +3751,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01170731778569422</v>
+        <v>0.01025799421312931</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001838066383684527</v>
+        <v>0.001130808490442395</v>
       </c>
       <c r="G23" t="n">
-        <v>6.369331486772192</v>
+        <v>9.071300389787767</v>
       </c>
     </row>
     <row r="24">
@@ -3634,17 +3778,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0102133841516479</v>
+        <v>0.009473702100406095</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002597979082959819</v>
+        <v>0.001624317574337773</v>
       </c>
       <c r="G24" t="n">
-        <v>3.931265230726861</v>
+        <v>5.832383966188874</v>
       </c>
     </row>
     <row r="25">
@@ -3661,17 +3805,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.009873274747267296</v>
+        <v>0.007618569800966828</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001072537301492663</v>
+        <v>0.002193074753341046</v>
       </c>
       <c r="G25" t="n">
-        <v>9.20544458368099</v>
+        <v>3.4739057801393</v>
       </c>
     </row>
     <row r="26">
@@ -3688,17 +3832,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.008702815778118385</v>
+        <v>0.007561864426330683</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001909085049180878</v>
+        <v>0.001680494238562643</v>
       </c>
       <c r="G26" t="n">
-        <v>4.558607902656518</v>
+        <v>4.499759210841649</v>
       </c>
     </row>
     <row r="27">
@@ -3715,17 +3859,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.008316188655047001</v>
+        <v>0.007427916621901645</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002360165726836334</v>
+        <v>0.001127288294435055</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5235463870287</v>
+        <v>6.589131429161031</v>
       </c>
     </row>
     <row r="28">
@@ -3742,17 +3886,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.008165974472033773</v>
+        <v>0.007205544442144221</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003168432020635266</v>
+        <v>0.001912469212073788</v>
       </c>
       <c r="G28" t="n">
-        <v>2.577283857129414</v>
+        <v>3.767645889510569</v>
       </c>
     </row>
     <row r="29">
@@ -3769,17 +3913,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.007454048442702692</v>
+        <v>0.0067671304084737</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002773842111949005</v>
+        <v>0.001653019385462644</v>
       </c>
       <c r="G29" t="n">
-        <v>2.687255175065991</v>
+        <v>4.093775021779024</v>
       </c>
     </row>
     <row r="30">
@@ -3796,17 +3940,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.007094260280800219</v>
+        <v>0.006498712024493323</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002140387773029629</v>
+        <v>0.001330910287400351</v>
       </c>
       <c r="G30" t="n">
-        <v>3.314458821716414</v>
+        <v>4.882870962307649</v>
       </c>
     </row>
     <row r="31">
@@ -3823,17 +3967,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.006984141384498972</v>
+        <v>0.006343095665765035</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002961702920443478</v>
+        <v>0.001064937053145722</v>
       </c>
       <c r="G31" t="n">
-        <v>2.358142592514735</v>
+        <v>5.956254488923475</v>
       </c>
     </row>
     <row r="32">
@@ -3854,13 +3998,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.09914391546126436</v>
+        <v>0.09580751883647999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.007139017602091582</v>
+        <v>0.005207131679443184</v>
       </c>
       <c r="G32" t="n">
-        <v>13.88759379949971</v>
+        <v>18.39925332062887</v>
       </c>
     </row>
     <row r="33">
@@ -3877,17 +4021,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.02373732371691059</v>
+        <v>0.06883983664572194</v>
       </c>
       <c r="F33" t="n">
-        <v>0.004704969144109938</v>
+        <v>0.005315313341495158</v>
       </c>
       <c r="G33" t="n">
-        <v>5.045149614877003</v>
+        <v>12.95120394808528</v>
       </c>
     </row>
     <row r="34">
@@ -3904,17 +4048,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.01762819736140197</v>
+        <v>0.01162861972733159</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003494387604187099</v>
+        <v>0.002730045650388578</v>
       </c>
       <c r="G34" t="n">
-        <v>5.044702795205473</v>
+        <v>4.259480837204343</v>
       </c>
     </row>
     <row r="35">
@@ -3931,17 +4075,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.01549540954716639</v>
+        <v>0.01106495517648072</v>
       </c>
       <c r="F35" t="n">
-        <v>0.003272774997485124</v>
+        <v>0.00184563735497609</v>
       </c>
       <c r="G35" t="n">
-        <v>4.734624962859883</v>
+        <v>5.995162156328648</v>
       </c>
     </row>
     <row r="36">
@@ -3958,17 +4102,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.01477036983620354</v>
+        <v>0.01098568474091404</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0058814143655795</v>
+        <v>0.001406983609365708</v>
       </c>
       <c r="G36" t="n">
-        <v>2.511359309939576</v>
+        <v>7.807913744445885</v>
       </c>
     </row>
     <row r="37">
@@ -3985,17 +4129,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.01025159283801389</v>
+        <v>0.01085144893671105</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00298468539754608</v>
+        <v>0.003766330740308371</v>
       </c>
       <c r="G37" t="n">
-        <v>3.434719953815862</v>
+        <v>2.881164951587088</v>
       </c>
     </row>
     <row r="38">
@@ -4012,17 +4156,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.01013733182148778</v>
+        <v>0.01083008850051977</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004748742517095873</v>
+        <v>0.003208914311097468</v>
       </c>
       <c r="G38" t="n">
-        <v>2.134735761653741</v>
+        <v>3.374990324036601</v>
       </c>
     </row>
     <row r="39">
@@ -4039,17 +4183,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.009926967072957807</v>
+        <v>0.009233885115480822</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00143939254431343</v>
+        <v>0.003644098755013983</v>
       </c>
       <c r="G39" t="n">
-        <v>6.896588527077251</v>
+        <v>2.533921388261474</v>
       </c>
     </row>
     <row r="40">
@@ -4066,17 +4210,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.00990255545536861</v>
+        <v>0.007926947306588933</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00171359430338396</v>
+        <v>0.001811338628949501</v>
       </c>
       <c r="G40" t="n">
-        <v>5.77878769084171</v>
+        <v>4.376268146229917</v>
       </c>
     </row>
     <row r="41">
@@ -4093,17 +4237,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.008596150733370448</v>
+        <v>0.007889939181013888</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002121318025616577</v>
+        <v>0.003649263893234652</v>
       </c>
       <c r="G41" t="n">
-        <v>4.052249642471925</v>
+        <v>2.162057278200181</v>
       </c>
     </row>
     <row r="42">
@@ -4120,17 +4264,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.00828544619649779</v>
+        <v>0.007825580089121442</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001653342085796558</v>
+        <v>0.001475193874154406</v>
       </c>
       <c r="G42" t="n">
-        <v>5.01130174732625</v>
+        <v>5.30474480593884</v>
       </c>
     </row>
     <row r="43">
@@ -4147,17 +4291,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.008035735542304157</v>
+        <v>0.007135828900881447</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001920851748282058</v>
+        <v>0.002298562041899238</v>
       </c>
       <c r="G43" t="n">
-        <v>4.183401303863226</v>
+        <v>3.104461713971486</v>
       </c>
     </row>
     <row r="44">
@@ -4174,17 +4318,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.007747140134994628</v>
+        <v>0.006925811353594484</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007756523671975288</v>
+        <v>0.001532922726344647</v>
       </c>
       <c r="G44" t="n">
-        <v>9.987773627570814</v>
+        <v>4.518013892305254</v>
       </c>
     </row>
     <row r="45">
@@ -4201,17 +4345,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.007008522832879028</v>
+        <v>0.005888849271633132</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001424196576373573</v>
+        <v>0.002272247512933409</v>
       </c>
       <c r="G45" t="n">
-        <v>4.921001594252345</v>
+        <v>2.591629354557981</v>
       </c>
     </row>
     <row r="46">
@@ -4228,17 +4372,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.0065671806197241</v>
+        <v>0.00557045929780389</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001620033212862036</v>
+        <v>0.001100598510436407</v>
       </c>
       <c r="G46" t="n">
-        <v>4.053707066320931</v>
+        <v>5.061254065348925</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +4396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,251 +4444,251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004701491591594433</v>
+        <v>0.00500351238997001</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002978532571680262</v>
+        <v>0.007427916621901645</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004213350499396364</v>
+        <v>0.004100813712013353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02730452976703314</v>
+        <v>0.005083159208032665</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03568870777373015</v>
+        <v>0.004170834394730998</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01477036983620354</v>
+        <v>0.004011778613275377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008015826496496027</v>
+        <v>0.005345698624195263</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003431547776650316</v>
+        <v>0.003162473259393605</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008596150733370448</v>
+        <v>0.005519746672847824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008655197274203425</v>
+        <v>0.00395092722895596</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008702815778118385</v>
+        <v>0.00270593412365213</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006183697428380519</v>
+        <v>0.004516727793774483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004602506976080066</v>
+        <v>0.02141608512548108</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002584187011948621</v>
+        <v>0.02868701528541857</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003995630442598336</v>
+        <v>0.01162861972733159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01657435372142739</v>
+        <v>0.05306086258703378</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01584598480446278</v>
+        <v>0.07003859222492562</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007747140134994628</v>
+        <v>0.06883983664572194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01127839263540848</v>
+        <v>0.00552782904312565</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01170731778569422</v>
+        <v>0.007561864426330683</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0065671806197241</v>
+        <v>0.006925811353594484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006585588102902036</v>
+        <v>0.004784416699137123</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009873274747267296</v>
+        <v>0.003657288402764913</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00990255545536861</v>
+        <v>0.003807199823839342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01029950173043634</v>
+        <v>0.008910614024237571</v>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006928821472858264</v>
+        <v>0.01145518842356034</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01549540954716639</v>
+        <v>0.01085144893671105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003946210928262146</v>
+        <v>0.005186104213713285</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004556758850859903</v>
+        <v>0.009473702100406095</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005077944942795445</v>
+        <v>0.007135828900881447</v>
       </c>
     </row>
     <row r="12">
@@ -4554,147 +4698,147 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004913853227355395</v>
+        <v>0.006360307201701354</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005353309829787807</v>
+        <v>0.005783858212325126</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005302689985425484</v>
+        <v>0.005888849271633132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02454503859208213</v>
+        <v>0.01660912223648308</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02881103543553891</v>
+        <v>0.01775287915489127</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009926967072957807</v>
+        <v>0.007926947306588933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006542859952849342</v>
+        <v>0.003657730633566356</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005739152871740366</v>
+        <v>0.00322407269439496</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005240733365800014</v>
+        <v>0.003417471488377187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007758323769459843</v>
+        <v>0.00524366892409498</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0102133841516479</v>
+        <v>0.004314787088955831</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01013733182148778</v>
+        <v>0.004777070859794964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_rms</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1006748095789323</v>
+        <v>0.01104549615977261</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1487977782101901</v>
+        <v>0.004963600958437136</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09914391546126436</v>
+        <v>0.01083008850051977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00829279693620264</v>
+        <v>0.002733108222322103</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006984141384498972</v>
+        <v>0.001745994022325809</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00642556088042086</v>
+        <v>0.002464912567388859</v>
       </c>
     </row>
     <row r="18">
@@ -4704,19 +4848,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -4725,226 +4869,226 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005488733003085011</v>
+        <v>0.009368886033857502</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008165974472033773</v>
+        <v>0.01025799421312931</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005286676359457345</v>
+        <v>0.01106495517648072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008749365315592358</v>
+        <v>0.008391166846210657</v>
       </c>
       <c r="D20" t="n">
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007094260280800219</v>
+        <v>0.006498712024493323</v>
       </c>
       <c r="F20" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007008522832879028</v>
+        <v>0.004154164687235682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01156411379447194</v>
+        <v>0.007712920387960916</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007454048442702692</v>
+        <v>0.006272301581661639</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008035735542304157</v>
+        <v>0.005008260739369699</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006148916874075484</v>
+        <v>0.007033781534515798</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01236970590594634</v>
+        <v>0.005876819645801497</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00828544619649779</v>
+        <v>0.00281144950324738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01050052659408995</v>
+        <v>0.006305974482924867</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>0.008316188655047001</v>
+        <v>0.0067671304084737</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01762819736140197</v>
+        <v>0.00557045929780389</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01154099728219461</v>
+        <v>0.01555656720518086</v>
       </c>
       <c r="D24" t="n">
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0175269086554339</v>
+        <v>0.01786646750826076</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02373732371691059</v>
+        <v>0.007825580089121442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006594737462426248</v>
+        <v>0.005456187152231808</v>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004210243000209347</v>
+        <v>0.003906802646875734</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006257230450912477</v>
+        <v>0.004210188979953865</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007114435741642729</v>
+        <v>0.005306081458700429</v>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006355993069508753</v>
+        <v>0.007205544442144221</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005674427404661751</v>
+        <v>0.009233885115480822</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005641100084394611</v>
+        <v>0.004309547598843716</v>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005126772634100816</v>
+        <v>0.004775759975391506</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005099707248449488</v>
+        <v>0.003287266896196297</v>
       </c>
     </row>
     <row r="28">
@@ -4954,122 +5098,172 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002385987237599791</v>
+        <v>0.001972249481030748</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001260580457276767</v>
+        <v>0.001082054223869151</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002215054096804359</v>
+        <v>0.001838438052344407</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_rms</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.008942947046186391</v>
+        <v>0.1038791637418082</v>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005381970800238922</v>
+        <v>0.1381728137856948</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01025159283801389</v>
+        <v>0.09580751883647999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007100076933750314</v>
+        <v>0.01215328726476817</v>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004527856320399134</v>
+        <v>0.003835926278569259</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005112700394980541</v>
+        <v>0.01098568474091404</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005035773766506807</v>
+        <v>0.003584899869797981</v>
       </c>
       <c r="D31" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00339738693170798</v>
+        <v>0.002387401863072318</v>
       </c>
       <c r="F31" t="n">
         <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005073733483016064</v>
+        <v>0.003583579345901295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B32" t="n">
+        <v>18</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.005446641740005759</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.006343095665765035</v>
+      </c>
+      <c r="F32" t="n">
+        <v>17</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.005198687823994019</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>current_phase_a_env_peak_sp_std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>27</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.004289780432605307</v>
+      </c>
+      <c r="D33" t="n">
         <v>29</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.003192669186970146</v>
-      </c>
-      <c r="D32" t="n">
-        <v>29</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.002570751415735839</v>
-      </c>
-      <c r="F32" t="n">
-        <v>29</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.003581913298373712</v>
+      <c r="E33" t="n">
+        <v>0.002498923354533598</v>
+      </c>
+      <c r="F33" t="n">
+        <v>27</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.003432834086558729</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>current_phase_a_form_factor</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.006722450194273939</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.007618569800966828</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.007889939181013888</v>
       </c>
     </row>
   </sheetData>
@@ -5157,7 +5351,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-29 14:38:56</t>
+          <t>2025-10-30 19:19:42</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/shap_per_class_20hz_no_load.xlsx
+++ b/notebooks/test_output/shap_per_class_20hz_no_load.xlsx
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1038791637418082</v>
+        <v>0.09030439368738186</v>
       </c>
       <c r="E2" t="n">
-        <v>62.14369046855232</v>
+        <v>20.11262487892802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01125479478625877</v>
+        <v>0.01150910130490261</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1381728137856948</v>
+        <v>0.1239245165436142</v>
       </c>
       <c r="E3" t="n">
-        <v>14.00465783302275</v>
+        <v>37.38422192867763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01265128238827629</v>
+        <v>0.01251237987867334</v>
       </c>
       <c r="G3" t="n">
         <v>7</v>
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.09580751883647999</v>
+        <v>0.08274548117994947</v>
       </c>
       <c r="E4" t="n">
-        <v>18.39925332062887</v>
+        <v>22.27034021187961</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01044078923413303</v>
+        <v>0.01107358662538427</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1038791637418082</v>
+        <v>0.09030439368738186</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001671586311042647</v>
+        <v>0.004489925760796378</v>
       </c>
       <c r="D2" t="n">
-        <v>62.14369046855232</v>
+        <v>20.11262487892802</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05306086258703378</v>
+        <v>0.06344041816700996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002560255071461346</v>
+        <v>0.00453794901849579</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7247535337221</v>
+        <v>13.97994514900638</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02141608512548108</v>
+        <v>0.02672276962263834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003941069506174178</v>
+        <v>0.004037648725624495</v>
       </c>
       <c r="D4" t="n">
-        <v>5.434065740599801</v>
+        <v>6.618382443529869</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01660912223648308</v>
+        <v>0.02175429692920938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003721633133293655</v>
+        <v>0.004843027969895068</v>
       </c>
       <c r="D5" t="n">
-        <v>4.462846555033341</v>
+        <v>4.491869992437973</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -735,17 +735,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01555656720518086</v>
+        <v>0.01506951510307884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00290025335959255</v>
+        <v>0.004431425502050816</v>
       </c>
       <c r="D6" t="n">
-        <v>5.36384640854352</v>
+        <v>3.400594479171556</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -759,17 +759,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01215328726476817</v>
+        <v>0.014623290053277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001543564896053495</v>
+        <v>0.003869176934412789</v>
       </c>
       <c r="D7" t="n">
-        <v>7.873467815420462</v>
+        <v>3.779421956384828</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -783,17 +783,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01104549615977261</v>
+        <v>0.01290782556038326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003232244413652157</v>
+        <v>0.001172687311564787</v>
       </c>
       <c r="D8" t="n">
-        <v>3.417273130827652</v>
+        <v>11.00695416719232</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -807,17 +807,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009368886033857502</v>
+        <v>0.0107454712010268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004384733832595614</v>
+        <v>0.001781628378289149</v>
       </c>
       <c r="D9" t="n">
-        <v>21.36657030013738</v>
+        <v>6.031230204720521</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -831,17 +831,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008910614024237571</v>
+        <v>0.009258042785978252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00258364671517437</v>
+        <v>0.003555078228972425</v>
       </c>
       <c r="D10" t="n">
-        <v>3.448838219065104</v>
+        <v>2.604166813787974</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -855,17 +855,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008391166846210657</v>
+        <v>0.007729896795662848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003902563341999071</v>
+        <v>0.001507231695719574</v>
       </c>
       <c r="D11" t="n">
-        <v>2.150162498140863</v>
+        <v>5.128505147923543</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -879,17 +879,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007712920387960916</v>
+        <v>0.007617973075359097</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003453958558045075</v>
+        <v>0.001249879855746127</v>
       </c>
       <c r="D12" t="n">
-        <v>2.233060393672599</v>
+        <v>6.094915516224839</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -903,17 +903,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007033781534515798</v>
+        <v>0.007429354893354877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002001348858767809</v>
+        <v>0.001846038158494017</v>
       </c>
       <c r="D13" t="n">
-        <v>3.514502910710545</v>
+        <v>4.024464291015924</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -927,17 +927,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006722450194273939</v>
+        <v>0.007025505617517583</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003389692370362434</v>
+        <v>0.001497479239261191</v>
       </c>
       <c r="D14" t="n">
-        <v>1.983197773660335</v>
+        <v>4.691523273304936</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -951,17 +951,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006360307201701354</v>
+        <v>0.006940599868053805</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001735575875826212</v>
+        <v>0.001186258812357257</v>
       </c>
       <c r="D15" t="n">
-        <v>3.664645633667411</v>
+        <v>5.850781707952021</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -975,17 +975,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006305974482924867</v>
+        <v>0.006716481395553279</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006509409197390254</v>
+        <v>0.002495761747397214</v>
       </c>
       <c r="D16" t="n">
-        <v>9.687327095955272</v>
+        <v>2.691144093027639</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -999,17 +999,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00552782904312565</v>
+        <v>0.006408850378877308</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0008364096683202491</v>
+        <v>0.003398170060239244</v>
       </c>
       <c r="D17" t="n">
-        <v>6.608918049747666</v>
+        <v>1.885965506614768</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1023,17 +1023,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005456187152231808</v>
+        <v>0.006242634280700462</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001925021129689462</v>
+        <v>0.001578472726775292</v>
       </c>
       <c r="D18" t="n">
-        <v>2.834337101401564</v>
+        <v>3.954832178273906</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1047,17 +1047,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005446641740005759</v>
+        <v>0.006103551637474822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001530643668843852</v>
+        <v>0.001106266693178768</v>
       </c>
       <c r="D19" t="n">
-        <v>3.558376300838693</v>
+        <v>5.517201686620476</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1071,17 +1071,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005345698624195263</v>
+        <v>0.005215303230591466</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00162213322095091</v>
+        <v>0.001565461060011019</v>
       </c>
       <c r="D20" t="n">
-        <v>3.295454159134964</v>
+        <v>3.331459369523418</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1095,17 +1095,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005306081458700429</v>
+        <v>0.004941022122692559</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001230224329095295</v>
+        <v>0.0008888695744990742</v>
       </c>
       <c r="D21" t="n">
-        <v>4.313065676359789</v>
+        <v>5.558708136000379</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1119,17 +1119,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00524366892409498</v>
+        <v>0.004642638341697072</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001539564966993041</v>
+        <v>0.0009954255840068438</v>
       </c>
       <c r="D22" t="n">
-        <v>3.405919839250466</v>
+        <v>4.663926442140482</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1143,17 +1143,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.005186104213713285</v>
+        <v>0.004486145513729835</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001279507926391893</v>
+        <v>0.001010488166965316</v>
       </c>
       <c r="D23" t="n">
-        <v>4.053170422033521</v>
+        <v>4.439538497335854</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1167,17 +1167,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005083159208032665</v>
+        <v>0.004412877870644307</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001618394482815594</v>
+        <v>0.001170292636421269</v>
       </c>
       <c r="D24" t="n">
-        <v>3.140845976396035</v>
+        <v>3.770715140947374</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1191,17 +1191,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00500351238997001</v>
+        <v>0.004287540980962963</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001374542450110301</v>
+        <v>0.0009542146684974713</v>
       </c>
       <c r="D25" t="n">
-        <v>3.640102921913605</v>
+        <v>4.493219597554687</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1215,17 +1215,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004784416699137123</v>
+        <v>0.004164417618181015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001409672302372992</v>
+        <v>0.001017536966071072</v>
       </c>
       <c r="D26" t="n">
-        <v>3.393968053002625</v>
+        <v>4.092604820257649</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1239,17 +1239,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004309547598843716</v>
+        <v>0.004127919312093435</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0009435332219684809</v>
+        <v>0.001242669974714198</v>
       </c>
       <c r="D27" t="n">
-        <v>4.567408782665895</v>
+        <v>3.321787906852533</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1263,17 +1263,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004289780432605307</v>
+        <v>0.003971371292358654</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001213302858874627</v>
+        <v>0.0009275035626262311</v>
       </c>
       <c r="D28" t="n">
-        <v>3.535592985130124</v>
+        <v>4.281739321540288</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1287,17 +1287,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00395092722895596</v>
+        <v>0.003017604704660927</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001065696572943252</v>
+        <v>0.0009220284192853297</v>
       </c>
       <c r="D29" t="n">
-        <v>3.707331200974346</v>
+        <v>3.27275376117176</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1311,17 +1311,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003657730633566356</v>
+        <v>0.002977227734054853</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0006818610843976241</v>
+        <v>0.0004641895402232572</v>
       </c>
       <c r="D30" t="n">
-        <v>5.364255380909213</v>
+        <v>6.41368091968155</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1335,17 +1335,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003584899869797981</v>
+        <v>0.002765712726702545</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0006856006896795352</v>
+        <v>0.000578202183371879</v>
       </c>
       <c r="D31" t="n">
-        <v>5.228768926391182</v>
+        <v>4.783214201012031</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1359,17 +1359,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002733108222322103</v>
+        <v>0.002579520950130768</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0005913772385317483</v>
+        <v>0.0004732921196545416</v>
       </c>
       <c r="D32" t="n">
-        <v>4.621520459433074</v>
+        <v>5.450051548498314</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001972249481030748</v>
+        <v>0.001170169610747944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0007437608732062539</v>
+        <v>0.0002231202084083</v>
       </c>
       <c r="D33" t="n">
-        <v>2.651689588930469</v>
+        <v>5.244335220655921</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1381728137856948</v>
+        <v>0.1239245165436142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00986619418957225</v>
+        <v>0.003314878210861789</v>
       </c>
       <c r="D2" t="n">
-        <v>14.00465783302275</v>
+        <v>37.38422192867763</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07003859222492562</v>
+        <v>0.08148202457538559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003619423733955863</v>
+        <v>0.009773299265381443</v>
       </c>
       <c r="D3" t="n">
-        <v>19.35070438446096</v>
+        <v>8.337199034927441</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02868701528541857</v>
+        <v>0.03194141729377811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00393958416764968</v>
+        <v>0.003699617398112866</v>
       </c>
       <c r="D4" t="n">
-        <v>7.281718386371999</v>
+        <v>8.633684924614581</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -1554,17 +1554,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01786646750826076</v>
+        <v>0.02133160897291312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003376157244314418</v>
+        <v>0.003386163579412957</v>
       </c>
       <c r="D5" t="n">
-        <v>5.291937932976665</v>
+        <v>6.299620640419523</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -1578,17 +1578,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01775287915489127</v>
+        <v>0.01477391007226924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003563525456683204</v>
+        <v>0.00229551328165675</v>
       </c>
       <c r="D6" t="n">
-        <v>4.981816336805847</v>
+        <v>6.435966121679435</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01145518842356034</v>
+        <v>0.01133371709518041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001845351191928729</v>
+        <v>0.002297179485010355</v>
       </c>
       <c r="D7" t="n">
-        <v>6.20755897201222</v>
+        <v>4.933731922915065</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01025799421312931</v>
+        <v>0.01004535541665919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001130808490442395</v>
+        <v>0.001189579656822481</v>
       </c>
       <c r="D8" t="n">
-        <v>9.071300389787767</v>
+        <v>8.444386985922009</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1650,17 +1650,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009473702100406095</v>
+        <v>0.009468625632234986</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001624317574337773</v>
+        <v>0.005216803092280523</v>
       </c>
       <c r="D9" t="n">
-        <v>5.832383966188874</v>
+        <v>1.815021060701983</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -1674,17 +1674,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007618569800966828</v>
+        <v>0.008898986056746858</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002193074753341046</v>
+        <v>0.00123312656270037</v>
       </c>
       <c r="D10" t="n">
-        <v>3.4739057801393</v>
+        <v>7.216545454835524</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -1698,17 +1698,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007561864426330683</v>
+        <v>0.007668035830222314</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001680494238562643</v>
+        <v>0.001874908111575101</v>
       </c>
       <c r="D11" t="n">
-        <v>4.499759210841649</v>
+        <v>4.089797726568693</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -1722,17 +1722,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007427916621901645</v>
+        <v>0.007212429462722082</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001127288294435055</v>
+        <v>0.001307833748764806</v>
       </c>
       <c r="D12" t="n">
-        <v>6.589131429161031</v>
+        <v>5.51474858486258</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1746,17 +1746,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007205544442144221</v>
+        <v>0.007106267740252305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001912469212073788</v>
+        <v>0.002090798251779346</v>
       </c>
       <c r="D13" t="n">
-        <v>3.767645889510569</v>
+        <v>3.39881370479796</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1770,17 +1770,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0067671304084737</v>
+        <v>0.006995803296019057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001653019385462644</v>
+        <v>0.001938535511184421</v>
       </c>
       <c r="D14" t="n">
-        <v>4.093775021779024</v>
+        <v>3.608789814660958</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1794,17 +1794,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006498712024493323</v>
+        <v>0.006601528438976409</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001330910287400351</v>
+        <v>0.001687693189078829</v>
       </c>
       <c r="D15" t="n">
-        <v>4.882870962307649</v>
+        <v>3.911545869969952</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1818,17 +1818,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006343095665765035</v>
+        <v>0.005034993748843209</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001064937053145722</v>
+        <v>0.001390047801088362</v>
       </c>
       <c r="D16" t="n">
-        <v>5.956254488923475</v>
+        <v>3.622147039425989</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1842,17 +1842,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006272301581661639</v>
+        <v>0.004906414849936353</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002073967237731889</v>
+        <v>0.002090060684820671</v>
       </c>
       <c r="D17" t="n">
-        <v>3.024286606212254</v>
+        <v>2.347487520670778</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1866,17 +1866,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005876819645801497</v>
+        <v>0.004728806368685857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001507717036103541</v>
+        <v>0.001753099883870462</v>
       </c>
       <c r="D18" t="n">
-        <v>3.897800798869482</v>
+        <v>2.697381614349092</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1890,17 +1890,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005783858212325126</v>
+        <v>0.004618382471773321</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002156618198028235</v>
+        <v>0.0006786280173962659</v>
       </c>
       <c r="D19" t="n">
-        <v>2.681898631212001</v>
+        <v>6.805369509790644</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1914,17 +1914,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004963600958437136</v>
+        <v>0.004522724627114688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001093228487060403</v>
+        <v>0.001657255223032191</v>
       </c>
       <c r="D20" t="n">
-        <v>4.540272792429498</v>
+        <v>2.72902886288759</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1938,17 +1938,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004775759975391506</v>
+        <v>0.00449871622500201</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009542592134344648</v>
+        <v>0.001421952289512239</v>
       </c>
       <c r="D21" t="n">
-        <v>5.004625432904092</v>
+        <v>3.163738066883023</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1962,17 +1962,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004314787088955831</v>
+        <v>0.003957841657029247</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001398947772914348</v>
+        <v>0.000550895814432374</v>
       </c>
       <c r="D22" t="n">
-        <v>3.084286868764555</v>
+        <v>7.184243755182019</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -1986,17 +1986,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.004170834394730998</v>
+        <v>0.003926643189022325</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001651876610003499</v>
+        <v>0.001003139181168591</v>
       </c>
       <c r="D23" t="n">
-        <v>2.524891460148202</v>
+        <v>3.91431629784923</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -2010,17 +2010,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.003906802646875734</v>
+        <v>0.003918088030739361</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005710106386170473</v>
+        <v>0.002017683416400531</v>
       </c>
       <c r="D24" t="n">
-        <v>6.841788864825629</v>
+        <v>1.941864903206675</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -2034,17 +2034,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.003835926278569259</v>
+        <v>0.00391393926414022</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007980455276422125</v>
+        <v>0.001395403794671227</v>
       </c>
       <c r="D25" t="n">
-        <v>4.806590701654781</v>
+        <v>2.804859231782485</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -2058,17 +2058,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003657288402764913</v>
+        <v>0.003533852669200965</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001380062528842225</v>
+        <v>0.0008534497294560271</v>
       </c>
       <c r="D26" t="n">
-        <v>2.650069707447258</v>
+        <v>4.140620286153807</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -2082,17 +2082,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00322407269439496</v>
+        <v>0.003469831829659144</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005633050883105825</v>
+        <v>0.0008536084730082783</v>
       </c>
       <c r="D27" t="n">
-        <v>5.723391333372867</v>
+        <v>4.064850913348842</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -2106,17 +2106,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.003162473259393605</v>
+        <v>0.002737650164539765</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005844236472462228</v>
+        <v>0.0006526470409612022</v>
       </c>
       <c r="D28" t="n">
-        <v>5.411175886766235</v>
+        <v>4.194622891845132</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2130,17 +2130,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00270593412365213</v>
+        <v>0.002704168274045936</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004739640570769355</v>
+        <v>0.0003772018928750856</v>
       </c>
       <c r="D29" t="n">
-        <v>5.709034246177957</v>
+        <v>7.168830901472734</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -2154,17 +2154,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002498923354533598</v>
+        <v>0.002640491086261358</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005020851233549058</v>
+        <v>0.0004224518923360063</v>
       </c>
       <c r="D30" t="n">
-        <v>4.976991885195496</v>
+        <v>6.250246789505066</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -2178,17 +2178,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002387401863072318</v>
+        <v>0.002278409034898783</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0008239181954860653</v>
+        <v>0.0005627534154331809</v>
       </c>
       <c r="D31" t="n">
-        <v>2.89758485769977</v>
+        <v>4.048609011204118</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -2202,17 +2202,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001745994022325809</v>
+        <v>0.001918355551050156</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0005022951762638974</v>
+        <v>0.000280896330254285</v>
       </c>
       <c r="D32" t="n">
-        <v>3.475962631546746</v>
+        <v>6.829164545041052</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
@@ -2230,13 +2230,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001082054223869151</v>
+        <v>0.0008150005273035091</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0003118526291802096</v>
+        <v>0.0002060427958464786</v>
       </c>
       <c r="D33" t="n">
-        <v>3.469650168452493</v>
+        <v>3.955299533575521</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -2329,13 +2329,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09580751883647999</v>
+        <v>0.08274548117994947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005207131679443184</v>
+        <v>0.003715491442398745</v>
       </c>
       <c r="D2" t="n">
-        <v>18.39925332062887</v>
+        <v>22.27034021187961</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06883983664572194</v>
+        <v>0.08181988753255387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005315313341495158</v>
+        <v>0.01132953086221207</v>
       </c>
       <c r="D3" t="n">
-        <v>12.95120394808528</v>
+        <v>7.221818476815018</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -2373,17 +2373,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01162861972733159</v>
+        <v>0.02115622743082416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002730045650388578</v>
+        <v>0.003880650409838883</v>
       </c>
       <c r="D4" t="n">
-        <v>4.259480837204343</v>
+        <v>5.451708007530225</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -2397,17 +2397,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01106495517648072</v>
+        <v>0.01216675405835781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00184563735497609</v>
+        <v>0.002840968109376717</v>
       </c>
       <c r="D5" t="n">
-        <v>5.995162156328648</v>
+        <v>4.282593385074367</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -2421,17 +2421,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01098568474091404</v>
+        <v>0.01163065524823411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001406983609365708</v>
+        <v>0.003293469966040878</v>
       </c>
       <c r="D6" t="n">
-        <v>7.807913744445885</v>
+        <v>3.531418247008628</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -2445,17 +2445,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01085144893671105</v>
+        <v>0.01062308616979957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003766330740308371</v>
+        <v>0.001234587797924481</v>
       </c>
       <c r="D7" t="n">
-        <v>2.881164951587088</v>
+        <v>8.604491428429856</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -2469,17 +2469,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01083008850051977</v>
+        <v>0.009777349245865291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003208914311097468</v>
+        <v>0.004716022465388685</v>
       </c>
       <c r="D8" t="n">
-        <v>3.374990324036601</v>
+        <v>2.073214999604432</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -2493,17 +2493,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009233885115480822</v>
+        <v>0.009669711164367321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003644098755013983</v>
+        <v>0.001798672561386671</v>
       </c>
       <c r="D9" t="n">
-        <v>2.533921388261474</v>
+        <v>5.375996505415932</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -2517,17 +2517,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007926947306588933</v>
+        <v>0.009585780093216551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001811338628949501</v>
+        <v>0.0006943170876998432</v>
       </c>
       <c r="D10" t="n">
-        <v>4.376268146229917</v>
+        <v>13.80585643716161</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -2541,17 +2541,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007889939181013888</v>
+        <v>0.009239156633098686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003649263893234652</v>
+        <v>0.004223197313881303</v>
       </c>
       <c r="D11" t="n">
-        <v>2.162057278200181</v>
+        <v>2.187710890424538</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -2565,17 +2565,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007825580089121442</v>
+        <v>0.008804632599538637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001475193874154406</v>
+        <v>0.002614051365237703</v>
       </c>
       <c r="D12" t="n">
-        <v>5.30474480593884</v>
+        <v>3.368181296975028</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -2589,17 +2589,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007135828900881447</v>
+        <v>0.008518182370564242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002298562041899238</v>
+        <v>0.00165997169481991</v>
       </c>
       <c r="D13" t="n">
-        <v>3.104461713971486</v>
+        <v>5.131491749063154</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -2613,17 +2613,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006925811353594484</v>
+        <v>0.008372685047458955</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001532922726344647</v>
+        <v>0.002862637001675994</v>
       </c>
       <c r="D14" t="n">
-        <v>4.518013892305254</v>
+        <v>2.924805273775285</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -2637,17 +2637,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005888849271633132</v>
+        <v>0.007206090700080084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002272247512933409</v>
+        <v>0.001464523764653355</v>
       </c>
       <c r="D15" t="n">
-        <v>2.591629354557981</v>
+        <v>4.920399156372961</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -2661,17 +2661,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00557045929780389</v>
+        <v>0.006209078421982586</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001100598510436407</v>
+        <v>0.001493445344113817</v>
       </c>
       <c r="D16" t="n">
-        <v>5.061254065348925</v>
+        <v>4.157525329735865</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -2685,17 +2685,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005519746672847824</v>
+        <v>0.005447272686327771</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001717949585634026</v>
+        <v>0.001007479685329844</v>
       </c>
       <c r="D17" t="n">
-        <v>3.212966544152272</v>
+        <v>5.406777623280957</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2709,17 +2709,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005198687823994019</v>
+        <v>0.005330620162924855</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001260910346738433</v>
+        <v>0.001646405156671904</v>
       </c>
       <c r="D18" t="n">
-        <v>4.122931188668052</v>
+        <v>3.237713247064778</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -2733,17 +2733,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005008260739369699</v>
+        <v>0.005326327142322855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001411642645308348</v>
+        <v>0.001795305031501037</v>
       </c>
       <c r="D19" t="n">
-        <v>3.547799634715198</v>
+        <v>2.966792484252522</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -2757,17 +2757,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004777070859794964</v>
+        <v>0.005308141026448663</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002075500295378953</v>
+        <v>0.001992763230715307</v>
       </c>
       <c r="D20" t="n">
-        <v>2.301636792855683</v>
+        <v>2.663695469525804</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -2785,13 +2785,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004516727793774483</v>
+        <v>0.005145996824130969</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001091879304951156</v>
+        <v>0.002187277318722191</v>
       </c>
       <c r="D21" t="n">
-        <v>4.136616938451037</v>
+        <v>2.352684432485647</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -2805,17 +2805,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004210188979953865</v>
+        <v>0.004991756239921132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001433967176815923</v>
+        <v>0.002060588675381298</v>
       </c>
       <c r="D22" t="n">
-        <v>2.936022307762518</v>
+        <v>2.422478622139969</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -2829,17 +2829,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.004154164687235682</v>
+        <v>0.004949801670323815</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00213142030576269</v>
+        <v>0.002213068723458131</v>
       </c>
       <c r="D23" t="n">
-        <v>1.949003294174893</v>
+        <v>2.236613464246457</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2853,17 +2853,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004100813712013353</v>
+        <v>0.004849082100996307</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000949273202377713</v>
+        <v>0.002162462991779841</v>
       </c>
       <c r="D24" t="n">
-        <v>4.319905484203088</v>
+        <v>2.242378110352828</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -2877,17 +2877,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.004011778613275377</v>
+        <v>0.004269577188746548</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00112934657424561</v>
+        <v>0.0009207700201125974</v>
       </c>
       <c r="D25" t="n">
-        <v>3.552269234325018</v>
+        <v>4.636913372886223</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -2901,17 +2901,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003807199823839342</v>
+        <v>0.003730494357850405</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001580814103982577</v>
+        <v>0.0003562061264087086</v>
       </c>
       <c r="D26" t="n">
-        <v>2.408363975630083</v>
+        <v>10.47255888008332</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -2929,13 +2929,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.003583579345901295</v>
+        <v>0.003262231666303906</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0006184110054863562</v>
+        <v>0.001319107118079388</v>
       </c>
       <c r="D27" t="n">
-        <v>5.794724490451282</v>
+        <v>2.473041719793358</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -2953,13 +2953,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.003432834086558729</v>
+        <v>0.00315738175332414</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000896562875234609</v>
+        <v>0.0009481221659089688</v>
       </c>
       <c r="D28" t="n">
-        <v>3.828839998823798</v>
+        <v>3.33010720113812</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -2973,17 +2973,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003417471488377187</v>
+        <v>0.002868555384611848</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0005249456873247632</v>
+        <v>0.0003771058219584039</v>
       </c>
       <c r="D29" t="n">
-        <v>6.510018980445815</v>
+        <v>7.606563335675296</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -2997,17 +2997,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003287266896196297</v>
+        <v>0.002855733162182808</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007126240416038709</v>
+        <v>0.0006165818251285114</v>
       </c>
       <c r="D30" t="n">
-        <v>4.612840117485683</v>
+        <v>4.631480739446408</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -3021,17 +3021,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00281144950324738</v>
+        <v>0.002800879329380696</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0008424167958572412</v>
+        <v>0.000267401010684297</v>
       </c>
       <c r="D31" t="n">
-        <v>3.337322028540758</v>
+        <v>10.47406134180237</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002464912567388859</v>
+        <v>0.00271762107612541</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0004899207273495931</v>
+        <v>0.0008126242444768127</v>
       </c>
       <c r="D32" t="n">
-        <v>5.031145077842821</v>
+        <v>3.344211857420627</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -3073,13 +3073,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001838438052344407</v>
+        <v>0.0008921289698675085</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0005519217793230294</v>
+        <v>0.0001855774269349154</v>
       </c>
       <c r="D33" t="n">
-        <v>3.330915379794471</v>
+        <v>4.807055006912584</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
@@ -3188,13 +3188,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1038791637418082</v>
+        <v>0.09030439368738186</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001671586311042647</v>
+        <v>0.004489925760796378</v>
       </c>
       <c r="G2" t="n">
-        <v>62.14369046855232</v>
+        <v>20.11262487892802</v>
       </c>
     </row>
     <row r="3">
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.05306086258703378</v>
+        <v>0.06344041816700996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002560255071461346</v>
+        <v>0.00453794901849579</v>
       </c>
       <c r="G3" t="n">
-        <v>20.7247535337221</v>
+        <v>13.97994514900638</v>
       </c>
     </row>
     <row r="4">
@@ -3242,13 +3242,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.02141608512548108</v>
+        <v>0.02672276962263834</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003941069506174178</v>
+        <v>0.004037648725624495</v>
       </c>
       <c r="G4" t="n">
-        <v>5.434065740599801</v>
+        <v>6.618382443529869</v>
       </c>
     </row>
     <row r="5">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01660912223648308</v>
+        <v>0.02175429692920938</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003721633133293655</v>
+        <v>0.004843027969895068</v>
       </c>
       <c r="G5" t="n">
-        <v>4.462846555033341</v>
+        <v>4.491869992437973</v>
       </c>
     </row>
     <row r="6">
@@ -3292,17 +3292,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01555656720518086</v>
+        <v>0.01506951510307884</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00290025335959255</v>
+        <v>0.004431425502050816</v>
       </c>
       <c r="G6" t="n">
-        <v>5.36384640854352</v>
+        <v>3.400594479171556</v>
       </c>
     </row>
     <row r="7">
@@ -3319,17 +3319,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01215328726476817</v>
+        <v>0.014623290053277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001543564896053495</v>
+        <v>0.003869176934412789</v>
       </c>
       <c r="G7" t="n">
-        <v>7.873467815420462</v>
+        <v>3.779421956384828</v>
       </c>
     </row>
     <row r="8">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.01104549615977261</v>
+        <v>0.01290782556038326</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003232244413652157</v>
+        <v>0.001172687311564787</v>
       </c>
       <c r="G8" t="n">
-        <v>3.417273130827652</v>
+        <v>11.00695416719232</v>
       </c>
     </row>
     <row r="9">
@@ -3373,17 +3373,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.009368886033857502</v>
+        <v>0.0107454712010268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004384733832595614</v>
+        <v>0.001781628378289149</v>
       </c>
       <c r="G9" t="n">
-        <v>21.36657030013738</v>
+        <v>6.031230204720521</v>
       </c>
     </row>
     <row r="10">
@@ -3400,17 +3400,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.008910614024237571</v>
+        <v>0.009258042785978252</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00258364671517437</v>
+        <v>0.003555078228972425</v>
       </c>
       <c r="G10" t="n">
-        <v>3.448838219065104</v>
+        <v>2.604166813787974</v>
       </c>
     </row>
     <row r="11">
@@ -3427,17 +3427,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.008391166846210657</v>
+        <v>0.007729896795662848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003902563341999071</v>
+        <v>0.001507231695719574</v>
       </c>
       <c r="G11" t="n">
-        <v>2.150162498140863</v>
+        <v>5.128505147923543</v>
       </c>
     </row>
     <row r="12">
@@ -3454,17 +3454,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.007712920387960916</v>
+        <v>0.007617973075359097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003453958558045075</v>
+        <v>0.001249879855746127</v>
       </c>
       <c r="G12" t="n">
-        <v>2.233060393672599</v>
+        <v>6.094915516224839</v>
       </c>
     </row>
     <row r="13">
@@ -3481,17 +3481,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.007033781534515798</v>
+        <v>0.007429354893354877</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002001348858767809</v>
+        <v>0.001846038158494017</v>
       </c>
       <c r="G13" t="n">
-        <v>3.514502910710545</v>
+        <v>4.024464291015924</v>
       </c>
     </row>
     <row r="14">
@@ -3508,17 +3508,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.006722450194273939</v>
+        <v>0.007025505617517583</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003389692370362434</v>
+        <v>0.001497479239261191</v>
       </c>
       <c r="G14" t="n">
-        <v>1.983197773660335</v>
+        <v>4.691523273304936</v>
       </c>
     </row>
     <row r="15">
@@ -3535,17 +3535,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.006360307201701354</v>
+        <v>0.006940599868053805</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001735575875826212</v>
+        <v>0.001186258812357257</v>
       </c>
       <c r="G15" t="n">
-        <v>3.664645633667411</v>
+        <v>5.850781707952021</v>
       </c>
     </row>
     <row r="16">
@@ -3562,17 +3562,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.006305974482924867</v>
+        <v>0.006716481395553279</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0006509409197390254</v>
+        <v>0.002495761747397214</v>
       </c>
       <c r="G16" t="n">
-        <v>9.687327095955272</v>
+        <v>2.691144093027639</v>
       </c>
     </row>
     <row r="17">
@@ -3593,13 +3593,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1381728137856948</v>
+        <v>0.1239245165436142</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00986619418957225</v>
+        <v>0.003314878210861789</v>
       </c>
       <c r="G17" t="n">
-        <v>14.00465783302275</v>
+        <v>37.38422192867763</v>
       </c>
     </row>
     <row r="18">
@@ -3620,13 +3620,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.07003859222492562</v>
+        <v>0.08148202457538559</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003619423733955863</v>
+        <v>0.009773299265381443</v>
       </c>
       <c r="G18" t="n">
-        <v>19.35070438446096</v>
+        <v>8.337199034927441</v>
       </c>
     </row>
     <row r="19">
@@ -3647,13 +3647,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.02868701528541857</v>
+        <v>0.03194141729377811</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00393958416764968</v>
+        <v>0.003699617398112866</v>
       </c>
       <c r="G19" t="n">
-        <v>7.281718386371999</v>
+        <v>8.633684924614581</v>
       </c>
     </row>
     <row r="20">
@@ -3670,17 +3670,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.01786646750826076</v>
+        <v>0.02133160897291312</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003376157244314418</v>
+        <v>0.003386163579412957</v>
       </c>
       <c r="G20" t="n">
-        <v>5.291937932976665</v>
+        <v>6.299620640419523</v>
       </c>
     </row>
     <row r="21">
@@ -3697,17 +3697,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.01775287915489127</v>
+        <v>0.01477391007226924</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003563525456683204</v>
+        <v>0.00229551328165675</v>
       </c>
       <c r="G21" t="n">
-        <v>4.981816336805847</v>
+        <v>6.435966121679435</v>
       </c>
     </row>
     <row r="22">
@@ -3728,13 +3728,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.01145518842356034</v>
+        <v>0.01133371709518041</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001845351191928729</v>
+        <v>0.002297179485010355</v>
       </c>
       <c r="G22" t="n">
-        <v>6.20755897201222</v>
+        <v>4.933731922915065</v>
       </c>
     </row>
     <row r="23">
@@ -3755,13 +3755,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01025799421312931</v>
+        <v>0.01004535541665919</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001130808490442395</v>
+        <v>0.001189579656822481</v>
       </c>
       <c r="G23" t="n">
-        <v>9.071300389787767</v>
+        <v>8.444386985922009</v>
       </c>
     </row>
     <row r="24">
@@ -3778,17 +3778,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.009473702100406095</v>
+        <v>0.009468625632234986</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001624317574337773</v>
+        <v>0.005216803092280523</v>
       </c>
       <c r="G24" t="n">
-        <v>5.832383966188874</v>
+        <v>1.815021060701983</v>
       </c>
     </row>
     <row r="25">
@@ -3805,17 +3805,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.007618569800966828</v>
+        <v>0.008898986056746858</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002193074753341046</v>
+        <v>0.00123312656270037</v>
       </c>
       <c r="G25" t="n">
-        <v>3.4739057801393</v>
+        <v>7.216545454835524</v>
       </c>
     </row>
     <row r="26">
@@ -3832,17 +3832,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.007561864426330683</v>
+        <v>0.007668035830222314</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001680494238562643</v>
+        <v>0.001874908111575101</v>
       </c>
       <c r="G26" t="n">
-        <v>4.499759210841649</v>
+        <v>4.089797726568693</v>
       </c>
     </row>
     <row r="27">
@@ -3859,17 +3859,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.007427916621901645</v>
+        <v>0.007212429462722082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001127288294435055</v>
+        <v>0.001307833748764806</v>
       </c>
       <c r="G27" t="n">
-        <v>6.589131429161031</v>
+        <v>5.51474858486258</v>
       </c>
     </row>
     <row r="28">
@@ -3886,17 +3886,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.007205544442144221</v>
+        <v>0.007106267740252305</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001912469212073788</v>
+        <v>0.002090798251779346</v>
       </c>
       <c r="G28" t="n">
-        <v>3.767645889510569</v>
+        <v>3.39881370479796</v>
       </c>
     </row>
     <row r="29">
@@ -3913,17 +3913,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.0067671304084737</v>
+        <v>0.006995803296019057</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001653019385462644</v>
+        <v>0.001938535511184421</v>
       </c>
       <c r="G29" t="n">
-        <v>4.093775021779024</v>
+        <v>3.608789814660958</v>
       </c>
     </row>
     <row r="30">
@@ -3940,17 +3940,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.006498712024493323</v>
+        <v>0.006601528438976409</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001330910287400351</v>
+        <v>0.001687693189078829</v>
       </c>
       <c r="G30" t="n">
-        <v>4.882870962307649</v>
+        <v>3.911545869969952</v>
       </c>
     </row>
     <row r="31">
@@ -3967,17 +3967,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.006343095665765035</v>
+        <v>0.005034993748843209</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001064937053145722</v>
+        <v>0.001390047801088362</v>
       </c>
       <c r="G31" t="n">
-        <v>5.956254488923475</v>
+        <v>3.622147039425989</v>
       </c>
     </row>
     <row r="32">
@@ -3998,13 +3998,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.09580751883647999</v>
+        <v>0.08274548117994947</v>
       </c>
       <c r="F32" t="n">
-        <v>0.005207131679443184</v>
+        <v>0.003715491442398745</v>
       </c>
       <c r="G32" t="n">
-        <v>18.39925332062887</v>
+        <v>22.27034021187961</v>
       </c>
     </row>
     <row r="33">
@@ -4025,13 +4025,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.06883983664572194</v>
+        <v>0.08181988753255387</v>
       </c>
       <c r="F33" t="n">
-        <v>0.005315313341495158</v>
+        <v>0.01132953086221207</v>
       </c>
       <c r="G33" t="n">
-        <v>12.95120394808528</v>
+        <v>7.221818476815018</v>
       </c>
     </row>
     <row r="34">
@@ -4048,17 +4048,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.01162861972733159</v>
+        <v>0.02115622743082416</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002730045650388578</v>
+        <v>0.003880650409838883</v>
       </c>
       <c r="G34" t="n">
-        <v>4.259480837204343</v>
+        <v>5.451708007530225</v>
       </c>
     </row>
     <row r="35">
@@ -4075,17 +4075,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.01106495517648072</v>
+        <v>0.01216675405835781</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00184563735497609</v>
+        <v>0.002840968109376717</v>
       </c>
       <c r="G35" t="n">
-        <v>5.995162156328648</v>
+        <v>4.282593385074367</v>
       </c>
     </row>
     <row r="36">
@@ -4102,17 +4102,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.01098568474091404</v>
+        <v>0.01163065524823411</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001406983609365708</v>
+        <v>0.003293469966040878</v>
       </c>
       <c r="G36" t="n">
-        <v>7.807913744445885</v>
+        <v>3.531418247008628</v>
       </c>
     </row>
     <row r="37">
@@ -4129,17 +4129,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.01085144893671105</v>
+        <v>0.01062308616979957</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003766330740308371</v>
+        <v>0.001234587797924481</v>
       </c>
       <c r="G37" t="n">
-        <v>2.881164951587088</v>
+        <v>8.604491428429856</v>
       </c>
     </row>
     <row r="38">
@@ -4156,17 +4156,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.01083008850051977</v>
+        <v>0.009777349245865291</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003208914311097468</v>
+        <v>0.004716022465388685</v>
       </c>
       <c r="G38" t="n">
-        <v>3.374990324036601</v>
+        <v>2.073214999604432</v>
       </c>
     </row>
     <row r="39">
@@ -4183,17 +4183,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.009233885115480822</v>
+        <v>0.009669711164367321</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003644098755013983</v>
+        <v>0.001798672561386671</v>
       </c>
       <c r="G39" t="n">
-        <v>2.533921388261474</v>
+        <v>5.375996505415932</v>
       </c>
     </row>
     <row r="40">
@@ -4210,17 +4210,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.007926947306588933</v>
+        <v>0.009585780093216551</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001811338628949501</v>
+        <v>0.0006943170876998432</v>
       </c>
       <c r="G40" t="n">
-        <v>4.376268146229917</v>
+        <v>13.80585643716161</v>
       </c>
     </row>
     <row r="41">
@@ -4237,17 +4237,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.007889939181013888</v>
+        <v>0.009239156633098686</v>
       </c>
       <c r="F41" t="n">
-        <v>0.003649263893234652</v>
+        <v>0.004223197313881303</v>
       </c>
       <c r="G41" t="n">
-        <v>2.162057278200181</v>
+        <v>2.187710890424538</v>
       </c>
     </row>
     <row r="42">
@@ -4264,17 +4264,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.007825580089121442</v>
+        <v>0.008804632599538637</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001475193874154406</v>
+        <v>0.002614051365237703</v>
       </c>
       <c r="G42" t="n">
-        <v>5.30474480593884</v>
+        <v>3.368181296975028</v>
       </c>
     </row>
     <row r="43">
@@ -4291,17 +4291,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.007135828900881447</v>
+        <v>0.008518182370564242</v>
       </c>
       <c r="F43" t="n">
-        <v>0.002298562041899238</v>
+        <v>0.00165997169481991</v>
       </c>
       <c r="G43" t="n">
-        <v>3.104461713971486</v>
+        <v>5.131491749063154</v>
       </c>
     </row>
     <row r="44">
@@ -4318,17 +4318,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.006925811353594484</v>
+        <v>0.008372685047458955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001532922726344647</v>
+        <v>0.002862637001675994</v>
       </c>
       <c r="G44" t="n">
-        <v>4.518013892305254</v>
+        <v>2.924805273775285</v>
       </c>
     </row>
     <row r="45">
@@ -4345,17 +4345,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.005888849271633132</v>
+        <v>0.007206090700080084</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002272247512933409</v>
+        <v>0.001464523764653355</v>
       </c>
       <c r="G45" t="n">
-        <v>2.591629354557981</v>
+        <v>4.920399156372961</v>
       </c>
     </row>
     <row r="46">
@@ -4372,17 +4372,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.00557045929780389</v>
+        <v>0.006209078421982586</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001100598510436407</v>
+        <v>0.001493445344113817</v>
       </c>
       <c r="G46" t="n">
-        <v>5.061254065348925</v>
+        <v>4.157525329735865</v>
       </c>
     </row>
   </sheetData>
@@ -4444,401 +4444,401 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00500351238997001</v>
+        <v>0.006242634280700462</v>
       </c>
       <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.004618382471773321</v>
+      </c>
+      <c r="F2" t="n">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.007427916621901645</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.004100813712013353</v>
+        <v>0.008804632599538637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005083159208032665</v>
+        <v>0.02672276962263834</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004170834394730998</v>
+        <v>0.03194141729377811</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004011778613275377</v>
+        <v>0.009585780093216551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005345698624195263</v>
+        <v>0.004164417618181015</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003162473259393605</v>
+        <v>0.003469831829659144</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005519746672847824</v>
+        <v>0.004849082100996307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00395092722895596</v>
+        <v>0.007429354893354877</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00270593412365213</v>
+        <v>0.004906414849936353</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004516727793774483</v>
+        <v>0.009239156633098686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02141608512548108</v>
+        <v>0.003017604704660927</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02868701528541857</v>
+        <v>0.001918355551050156</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01162861972733159</v>
+        <v>0.00315738175332414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05306086258703378</v>
+        <v>0.006408850378877308</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07003859222492562</v>
+        <v>0.00391393926414022</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06883983664572194</v>
+        <v>0.005145996824130969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00552782904312565</v>
+        <v>0.009258042785978252</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007561864426330683</v>
+        <v>0.006601528438976409</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006925811353594484</v>
+        <v>0.009777349245865291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004784416699137123</v>
+        <v>0.004642638341697072</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003657288402764913</v>
+        <v>0.005034993748843209</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003807199823839342</v>
+        <v>0.004991756239921132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008910614024237571</v>
+        <v>0.006103551637474822</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01145518842356034</v>
+        <v>0.007106267740252305</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01085144893671105</v>
+        <v>0.005447272686327771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005186104213713285</v>
+        <v>0.002765712726702545</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009473702100406095</v>
+        <v>0.002704168274045936</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007135828900881447</v>
+        <v>0.002868555384611848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006360307201701354</v>
+        <v>0.004412877870644307</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005783858212325126</v>
+        <v>0.004522724627114688</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005888849271633132</v>
+        <v>0.003730494357850405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01660912223648308</v>
+        <v>0.007025505617517583</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01775287915489127</v>
+        <v>0.01477391007226924</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007926947306588933</v>
+        <v>0.01163065524823411</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003657730633566356</v>
+        <v>0.006716481395553279</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00322407269439496</v>
+        <v>0.009468625632234986</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003417471488377187</v>
+        <v>0.004949801670323815</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00524366892409498</v>
+        <v>0.005215303230591466</v>
       </c>
       <c r="D15" t="n">
         <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004314787088955831</v>
+        <v>0.003957841657029247</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004777070859794964</v>
+        <v>0.006209078421982586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_rms</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01104549615977261</v>
+        <v>0.09030439368738186</v>
       </c>
       <c r="D16" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004963600958437136</v>
+        <v>0.1239245165436142</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01083008850051977</v>
+        <v>0.08274548117994947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002733108222322103</v>
+        <v>0.06344041816700996</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001745994022325809</v>
+        <v>0.08148202457538559</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002464912567388859</v>
+        <v>0.08181988753255387</v>
       </c>
     </row>
     <row r="18">
@@ -4869,301 +4869,301 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009368886033857502</v>
+        <v>0.002977227734054853</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01025799421312931</v>
+        <v>0.002278409034898783</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01106495517648072</v>
+        <v>0.00271762107612541</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008391166846210657</v>
+        <v>0.014623290053277</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006498712024493323</v>
+        <v>0.008898986056746858</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004154164687235682</v>
+        <v>0.01216675405835781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007712920387960916</v>
+        <v>0.004287540980962963</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006272301581661639</v>
+        <v>0.004728806368685857</v>
       </c>
       <c r="F21" t="n">
         <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005008260739369699</v>
+        <v>0.005326327142322855</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007033781534515798</v>
+        <v>0.01506951510307884</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005876819645801497</v>
+        <v>0.007668035830222314</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00281144950324738</v>
+        <v>0.008372685047458955</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006305974482924867</v>
+        <v>0.007729896795662848</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0067671304084737</v>
+        <v>0.00449871622500201</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00557045929780389</v>
+        <v>0.004269577188746548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01555656720518086</v>
+        <v>0.004127919312093435</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01786646750826076</v>
+        <v>0.003926643189022325</v>
       </c>
       <c r="F24" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007825580089121442</v>
+        <v>0.002800879329380696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.005456187152231808</v>
+        <v>0.02175429692920938</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003906802646875734</v>
+        <v>0.02133160897291312</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004210188979953865</v>
+        <v>0.008518182370564242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005306081458700429</v>
+        <v>0.01290782556038326</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007205544442144221</v>
+        <v>0.007212429462722082</v>
       </c>
       <c r="F26" t="n">
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009233885115480822</v>
+        <v>0.009669711164367321</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004309547598843716</v>
+        <v>0.001170169610747944</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004775759975391506</v>
+        <v>0.0008150005273035091</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003287266896196297</v>
+        <v>0.0008921289698675085</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001972249481030748</v>
+        <v>0.007617973075359097</v>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001082054223869151</v>
+        <v>0.01004535541665919</v>
       </c>
       <c r="F28" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001838438052344407</v>
+        <v>0.007206090700080084</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_rms</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1038791637418082</v>
+        <v>0.002579520950130768</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1381728137856948</v>
+        <v>0.002640491086261358</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09580751883647999</v>
+        <v>0.002855733162182808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01215328726476817</v>
+        <v>0.004486145513729835</v>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003835926278569259</v>
+        <v>0.003533852669200965</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01098568474091404</v>
+        <v>0.005308141026448663</v>
       </c>
     </row>
     <row r="31">
@@ -5173,97 +5173,97 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003584899869797981</v>
+        <v>0.003971371292358654</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002387401863072318</v>
+        <v>0.002737650164539765</v>
       </c>
       <c r="F31" t="n">
         <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003583579345901295</v>
+        <v>0.003262231666303906</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005446641740005759</v>
+        <v>0.0107454712010268</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0.006343095665765035</v>
+        <v>0.01133371709518041</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005198687823994019</v>
+        <v>0.02115622743082416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004289780432605307</v>
+        <v>0.006940599868053805</v>
       </c>
       <c r="D33" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002498923354533598</v>
+        <v>0.006995803296019057</v>
       </c>
       <c r="F33" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>0.003432834086558729</v>
+        <v>0.01062308616979957</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006722450194273939</v>
+        <v>0.004941022122692559</v>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E34" t="n">
-        <v>0.007618569800966828</v>
+        <v>0.003918088030739361</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34" t="n">
-        <v>0.007889939181013888</v>
+        <v>0.005330620162924855</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-30 19:19:42</t>
+          <t>2025-10-31 11:41:54</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/shap_per_class_20hz_no_load.xlsx
+++ b/notebooks/test_output/shap_per_class_20hz_no_load.xlsx
@@ -501,22 +501,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.09030439368738186</v>
+        <v>0.08947038215280392</v>
       </c>
       <c r="E2" t="n">
-        <v>20.11262487892802</v>
+        <v>17.60060811429969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01150910130490261</v>
+        <v>0.01119368457959839</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1239245165436142</v>
+        <v>0.1335743092130243</v>
       </c>
       <c r="E3" t="n">
-        <v>37.38422192867763</v>
+        <v>10.70360982013237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01251237987867334</v>
+        <v>0.01302437585798219</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -563,26 +563,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>current_phase_a_rms</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.08274548117994947</v>
+        <v>0.09205584583735392</v>
       </c>
       <c r="E4" t="n">
-        <v>22.27034021187961</v>
+        <v>6.567371294726433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01107358662538427</v>
+        <v>0.0114119922608798</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09030439368738186</v>
+        <v>0.08947038215280392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004489925760796378</v>
+        <v>0.005083358800201473</v>
       </c>
       <c r="D2" t="n">
-        <v>20.11262487892802</v>
+        <v>17.60060811429969</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06344041816700996</v>
+        <v>0.0598043314413836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00453794901849579</v>
+        <v>0.003965517981583669</v>
       </c>
       <c r="D3" t="n">
-        <v>13.97994514900638</v>
+        <v>15.08105143101278</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -687,17 +687,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02672276962263834</v>
+        <v>0.01934626971777358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004037648725624495</v>
+        <v>0.005117110359299441</v>
       </c>
       <c r="D4" t="n">
-        <v>6.618382443529869</v>
+        <v>3.780694679697192</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -711,17 +711,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02175429692920938</v>
+        <v>0.01785408286752348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004843027969895068</v>
+        <v>0.002003337538673498</v>
       </c>
       <c r="D5" t="n">
-        <v>4.491869992437973</v>
+        <v>8.912124592892868</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -735,17 +735,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01506951510307884</v>
+        <v>0.01737711080385931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004431425502050816</v>
+        <v>0.003500129330335388</v>
       </c>
       <c r="D6" t="n">
-        <v>3.400594479171556</v>
+        <v>4.964691163364121</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -759,17 +759,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.014623290053277</v>
+        <v>0.01119049018831471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003869176934412789</v>
+        <v>0.001634222966783054</v>
       </c>
       <c r="D7" t="n">
-        <v>3.779421956384828</v>
+        <v>6.847548920973551</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -783,17 +783,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01290782556038326</v>
+        <v>0.009996664125381945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001172687311564787</v>
+        <v>0.001506893360535688</v>
       </c>
       <c r="D8" t="n">
-        <v>11.00695416719232</v>
+        <v>6.633911893214066</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -807,17 +807,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0107454712010268</v>
+        <v>0.009145379591010005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001781628378289149</v>
+        <v>0.001887251195291373</v>
       </c>
       <c r="D9" t="n">
-        <v>6.031230204720521</v>
+        <v>4.845847312405561</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -831,17 +831,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009258042785978252</v>
+        <v>0.008630382388641101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003555078228972425</v>
+        <v>0.002914212626336436</v>
       </c>
       <c r="D10" t="n">
-        <v>2.604166813787974</v>
+        <v>2.961469830975349</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -855,17 +855,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007729896795662848</v>
+        <v>0.008334877817544778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001507231695719574</v>
+        <v>0.001769702756283999</v>
       </c>
       <c r="D11" t="n">
-        <v>5.128505147923543</v>
+        <v>4.709734835751626</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -879,17 +879,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007617973075359097</v>
+        <v>0.007157449673629128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001249879855746127</v>
+        <v>0.00208556742788595</v>
       </c>
       <c r="D12" t="n">
-        <v>6.094915516224839</v>
+        <v>3.43187914192392</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -903,17 +903,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007429354893354877</v>
+        <v>0.007104264198398573</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001846038158494017</v>
+        <v>0.002194874394543194</v>
       </c>
       <c r="D13" t="n">
-        <v>4.024464291015924</v>
+        <v>3.236737304279361</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -927,17 +927,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.007025505617517583</v>
+        <v>0.006354681821574208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001497479239261191</v>
+        <v>0.001253286656350524</v>
       </c>
       <c r="D14" t="n">
-        <v>4.691523273304936</v>
+        <v>5.070373234760245</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -951,17 +951,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006940599868053805</v>
+        <v>0.006336957435771789</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001186258812357257</v>
+        <v>0.001193097037751115</v>
       </c>
       <c r="D15" t="n">
-        <v>5.850781707952021</v>
+        <v>5.311306727111681</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -975,17 +975,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006716481395553279</v>
+        <v>0.006115930160840832</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002495761747397214</v>
+        <v>0.001938746113071593</v>
       </c>
       <c r="D16" t="n">
-        <v>2.691144093027639</v>
+        <v>3.154563959646939</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -999,17 +999,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006408850378877308</v>
+        <v>0.006048303256463411</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003398170060239244</v>
+        <v>0.002022824028151887</v>
       </c>
       <c r="D17" t="n">
-        <v>1.885965506614768</v>
+        <v>2.990014589575249</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1023,17 +1023,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006242634280700462</v>
+        <v>0.00589560173599492</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001578472726775292</v>
+        <v>0.0009997074828225212</v>
       </c>
       <c r="D18" t="n">
-        <v>3.954832178273906</v>
+        <v>5.897267815452978</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1047,17 +1047,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006103551637474822</v>
+        <v>0.005445830249082585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001106266693178768</v>
+        <v>0.001228360529527491</v>
       </c>
       <c r="D19" t="n">
-        <v>5.517201686620476</v>
+        <v>4.433377485193652</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1071,17 +1071,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005215303230591466</v>
+        <v>0.005362686608860113</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001565461060011019</v>
+        <v>0.00144494788316107</v>
       </c>
       <c r="D20" t="n">
-        <v>3.331459369523418</v>
+        <v>3.711309977511873</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1095,17 +1095,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004941022122692559</v>
+        <v>0.005251352450626504</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0008888695744990742</v>
+        <v>0.001671036718280791</v>
       </c>
       <c r="D21" t="n">
-        <v>5.558708136000379</v>
+        <v>3.142552744443439</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1119,17 +1119,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004642638341697072</v>
+        <v>0.005059569858465314</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0009954255840068438</v>
+        <v>0.001571803907391841</v>
       </c>
       <c r="D22" t="n">
-        <v>4.663926442140482</v>
+        <v>3.218936945825104</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1143,17 +1143,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.004486145513729835</v>
+        <v>0.004834556544988275</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001010488166965316</v>
+        <v>0.0009821143342240775</v>
       </c>
       <c r="D23" t="n">
-        <v>4.439538497335854</v>
+        <v>4.922550410898629</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1167,17 +1167,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004412877870644307</v>
+        <v>0.004710187716018539</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001170292636421269</v>
+        <v>0.00101897298488716</v>
       </c>
       <c r="D24" t="n">
-        <v>3.770715140947374</v>
+        <v>4.622440007219686</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1191,17 +1191,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.004287540980962963</v>
+        <v>0.004638591599508209</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0009542146684974713</v>
+        <v>0.0009617067854271746</v>
       </c>
       <c r="D25" t="n">
-        <v>4.493219597554687</v>
+        <v>4.823240760477985</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1215,17 +1215,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004164417618181015</v>
+        <v>0.004542299226515254</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001017536966071072</v>
+        <v>0.0007895852233602082</v>
       </c>
       <c r="D26" t="n">
-        <v>4.092604820257649</v>
+        <v>5.752693395465345</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1239,17 +1239,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004127919312093435</v>
+        <v>0.004348276181978208</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001242669974714198</v>
+        <v>0.001453039602926541</v>
       </c>
       <c r="D27" t="n">
-        <v>3.321787906852533</v>
+        <v>2.992517373956459</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1263,17 +1263,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.003971371292358654</v>
+        <v>0.00424774008812694</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0009275035626262311</v>
+        <v>0.001502649213298345</v>
       </c>
       <c r="D28" t="n">
-        <v>4.281739321540288</v>
+        <v>2.826815322153535</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1287,17 +1287,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003017604704660927</v>
+        <v>0.00409939927326536</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0009220284192853297</v>
+        <v>0.001032961548902842</v>
       </c>
       <c r="D29" t="n">
-        <v>3.27275376117176</v>
+        <v>3.968550031817903</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1311,17 +1311,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002977227734054853</v>
+        <v>0.003881633591173469</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004641895402232572</v>
+        <v>0.0009267794249326172</v>
       </c>
       <c r="D30" t="n">
-        <v>6.41368091968155</v>
+        <v>4.188258396944576</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1335,17 +1335,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002765712726702545</v>
+        <v>0.003390196541462896</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000578202183371879</v>
+        <v>0.0005814341905588063</v>
       </c>
       <c r="D31" t="n">
-        <v>4.783214201012031</v>
+        <v>5.830648231612209</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1359,17 +1359,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002579520950130768</v>
+        <v>0.002222427240167349</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0004732921196545416</v>
+        <v>0.0008330136128205445</v>
       </c>
       <c r="D32" t="n">
-        <v>5.450051548498314</v>
+        <v>2.667904253809093</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1383,46 +1383,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001170169610747944</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002231202084083</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>5.244335220655921</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>frequency_hz</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="inlineStr">
         <is>
           <t>20hz</t>
         </is>
@@ -1439,7 +1415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,13 +1462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1239245165436142</v>
+        <v>0.1335743092130243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003314878210861789</v>
+        <v>0.01247936018049603</v>
       </c>
       <c r="D2" t="n">
-        <v>37.38422192867763</v>
+        <v>10.70360982013237</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -1510,13 +1486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08148202457538559</v>
+        <v>0.06996646778779707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009773299265381443</v>
+        <v>0.009905552146559001</v>
       </c>
       <c r="D3" t="n">
-        <v>8.337199034927441</v>
+        <v>7.063351554671943</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -1534,13 +1510,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03194141729377811</v>
+        <v>0.02742571917860786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003699617398112866</v>
+        <v>0.001494243597575974</v>
       </c>
       <c r="D4" t="n">
-        <v>8.633684924614581</v>
+        <v>18.35412624945239</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -1554,17 +1530,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02133160897291312</v>
+        <v>0.01905605451338522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003386163579412957</v>
+        <v>0.004208444717546862</v>
       </c>
       <c r="D5" t="n">
-        <v>6.299620640419523</v>
+        <v>4.528040763735039</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -1578,17 +1554,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01477391007226924</v>
+        <v>0.01723419891648958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00229551328165675</v>
+        <v>0.004297733926195545</v>
       </c>
       <c r="D6" t="n">
-        <v>6.435966121679435</v>
+        <v>4.010057186386547</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -1602,17 +1578,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01133371709518041</v>
+        <v>0.01181756374615098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002297179485010355</v>
+        <v>0.001615055837217617</v>
       </c>
       <c r="D7" t="n">
-        <v>4.933731922915065</v>
+        <v>7.317078643995035</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -1626,17 +1602,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01004535541665919</v>
+        <v>0.01038047325630957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001189579656822481</v>
+        <v>0.001356663559808088</v>
       </c>
       <c r="D8" t="n">
-        <v>8.444386985922009</v>
+        <v>7.651415612299518</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1650,17 +1626,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009468625632234986</v>
+        <v>0.01025048204327239</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005216803092280523</v>
+        <v>0.004989974677409688</v>
       </c>
       <c r="D9" t="n">
-        <v>1.815021060701983</v>
+        <v>2.054211126073726</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -1674,17 +1650,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008898986056746858</v>
+        <v>0.009899670235698496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00123312656270037</v>
+        <v>0.003113364655548736</v>
       </c>
       <c r="D10" t="n">
-        <v>7.216545454835524</v>
+        <v>3.179723396943266</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -1698,17 +1674,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007668035830222314</v>
+        <v>0.008927770993022669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001874908111575101</v>
+        <v>0.002699311693834165</v>
       </c>
       <c r="D11" t="n">
-        <v>4.089797726568693</v>
+        <v>3.307412752402069</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -1722,17 +1698,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007212429462722082</v>
+        <v>0.008153133469123514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001307833748764806</v>
+        <v>0.001764201659899393</v>
       </c>
       <c r="D12" t="n">
-        <v>5.51474858486258</v>
+        <v>4.621403233208684</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1746,17 +1722,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007106267740252305</v>
+        <v>0.007950204655173557</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002090798251779346</v>
+        <v>0.001790489010741917</v>
       </c>
       <c r="D13" t="n">
-        <v>3.39881370479796</v>
+        <v>4.440217284386706</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1770,17 +1746,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006995803296019057</v>
+        <v>0.007393227244433415</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001938535511184421</v>
+        <v>0.001440763860301628</v>
       </c>
       <c r="D14" t="n">
-        <v>3.608789814660958</v>
+        <v>5.131427941707406</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -1794,17 +1770,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006601528438976409</v>
+        <v>0.007164237881727155</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001687693189078829</v>
+        <v>0.001554979350547505</v>
       </c>
       <c r="D15" t="n">
-        <v>3.911545869969952</v>
+        <v>4.607258486500024</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1818,17 +1794,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005034993748843209</v>
+        <v>0.007062869558926904</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001390047801088362</v>
+        <v>0.00108344121025426</v>
       </c>
       <c r="D16" t="n">
-        <v>3.622147039425989</v>
+        <v>6.518862586594389</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1842,17 +1818,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004906414849936353</v>
+        <v>0.006683225039643095</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002090060684820671</v>
+        <v>0.002118040828920609</v>
       </c>
       <c r="D17" t="n">
-        <v>2.347487520670778</v>
+        <v>3.155365748728971</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1870,13 +1846,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004728806368685857</v>
+        <v>0.006458056982135013</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001753099883870462</v>
+        <v>0.002995293284978106</v>
       </c>
       <c r="D18" t="n">
-        <v>2.697381614349092</v>
+        <v>2.15606112894248</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1890,17 +1866,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004618382471773321</v>
+        <v>0.005195182895393068</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006786280173962659</v>
+        <v>0.001077905988589623</v>
       </c>
       <c r="D19" t="n">
-        <v>6.805369509790644</v>
+        <v>4.819654732267772</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1914,17 +1890,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004522724627114688</v>
+        <v>0.004290261043976759</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001657255223032191</v>
+        <v>0.001422228801676021</v>
       </c>
       <c r="D20" t="n">
-        <v>2.72902886288759</v>
+        <v>3.016554631276371</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1938,17 +1914,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00449871622500201</v>
+        <v>0.00394632276328411</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001421952289512239</v>
+        <v>0.0008816813643284286</v>
       </c>
       <c r="D21" t="n">
-        <v>3.163738066883023</v>
+        <v>4.475855070090162</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1962,17 +1938,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.003957841657029247</v>
+        <v>0.003761132378917233</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000550895814432374</v>
+        <v>0.0009854598576372775</v>
       </c>
       <c r="D22" t="n">
-        <v>7.184243755182019</v>
+        <v>3.816587945099377</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -1986,17 +1962,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.003926643189022325</v>
+        <v>0.003753681503967562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001003139181168591</v>
+        <v>0.001106932759870773</v>
       </c>
       <c r="D23" t="n">
-        <v>3.91431629784923</v>
+        <v>3.391034875557408</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -2010,17 +1986,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.003918088030739361</v>
+        <v>0.003743044993270597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002017683416400531</v>
+        <v>0.002289194350967385</v>
       </c>
       <c r="D24" t="n">
-        <v>1.941864903206675</v>
+        <v>1.635085566602579</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -2034,17 +2010,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00391393926414022</v>
+        <v>0.003497057621920722</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001395403794671227</v>
+        <v>0.000996103601392876</v>
       </c>
       <c r="D25" t="n">
-        <v>2.804859231782485</v>
+        <v>3.510701607759146</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -2058,17 +2034,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003533852669200965</v>
+        <v>0.00349516563862998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0008534497294560271</v>
+        <v>0.001069771272370886</v>
       </c>
       <c r="D26" t="n">
-        <v>4.140620286153807</v>
+        <v>3.267177813726234</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -2082,17 +2058,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.003469831829659144</v>
+        <v>0.003451071616451398</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0008536084730082783</v>
+        <v>0.00138089732083769</v>
       </c>
       <c r="D27" t="n">
-        <v>4.064850913348842</v>
+        <v>2.499133406257777</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -2110,13 +2086,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.002737650164539765</v>
+        <v>0.003110465896265891</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0006526470409612022</v>
+        <v>0.0005062990775791393</v>
       </c>
       <c r="D28" t="n">
-        <v>4.194622891845132</v>
+        <v>6.14341325093012</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2130,17 +2106,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002704168274045936</v>
+        <v>0.002631362765628965</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003772018928750856</v>
+        <v>0.001127789289520197</v>
       </c>
       <c r="D29" t="n">
-        <v>7.168830901472734</v>
+        <v>2.333183563848878</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -2154,17 +2130,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002640491086261358</v>
+        <v>0.002624069130280448</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004224518923360063</v>
+        <v>0.0001635662370705581</v>
       </c>
       <c r="D30" t="n">
-        <v>6.250246789505066</v>
+        <v>16.04187244598715</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -2178,17 +2154,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002278409034898783</v>
+        <v>0.002365517306634709</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005627534154331809</v>
+        <v>0.0003173654083221564</v>
       </c>
       <c r="D31" t="n">
-        <v>4.048609011204118</v>
+        <v>7.453373023260698</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -2202,17 +2178,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001918355551050156</v>
+        <v>0.001518027185887725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000280896330254285</v>
+        <v>0.000933819344405253</v>
       </c>
       <c r="D32" t="n">
-        <v>6.829164545041052</v>
+        <v>1.625593792894292</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
@@ -2226,46 +2202,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0008150005273035091</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002060427958464786</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3.955299533575521</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>frequency_hz</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="inlineStr">
         <is>
           <t>20hz</t>
         </is>
@@ -2282,7 +2234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2325,17 +2277,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>current_phase_a_rms</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08274548117994947</v>
+        <v>0.09205584583735392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003715491442398745</v>
+        <v>0.01401714263324221</v>
       </c>
       <c r="D2" t="n">
-        <v>22.27034021187961</v>
+        <v>6.567371294726433</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -2349,17 +2301,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_rms</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08181988753255387</v>
+        <v>0.0810782023322784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01132953086221207</v>
+        <v>0.0131565216606536</v>
       </c>
       <c r="D3" t="n">
-        <v>7.221818476815018</v>
+        <v>6.162581782458199</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -2373,17 +2325,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02115622743082416</v>
+        <v>0.01238945955074899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003880650409838883</v>
+        <v>0.001903219293073832</v>
       </c>
       <c r="D4" t="n">
-        <v>5.451708007530225</v>
+        <v>6.509704109660509</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -2397,17 +2349,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01216675405835781</v>
+        <v>0.01226762620732598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002840968109376717</v>
+        <v>0.002776827850427346</v>
       </c>
       <c r="D5" t="n">
-        <v>4.282593385074367</v>
+        <v>4.417840316256865</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -2421,17 +2373,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01163065524823411</v>
+        <v>0.01213723371225801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003293469966040878</v>
+        <v>0.002129655634859482</v>
       </c>
       <c r="D6" t="n">
-        <v>3.531418247008628</v>
+        <v>5.699126432614311</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -2445,17 +2397,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01062308616979957</v>
+        <v>0.01178506510693582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001234587797924481</v>
+        <v>0.005153776826509512</v>
       </c>
       <c r="D7" t="n">
-        <v>8.604491428429856</v>
+        <v>2.286680746343064</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -2469,17 +2421,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009777349245865291</v>
+        <v>0.01099190334441814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004716022465388685</v>
+        <v>0.002738007829832694</v>
       </c>
       <c r="D8" t="n">
-        <v>2.073214999604432</v>
+        <v>4.014547759570212</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -2493,17 +2445,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009669711164367321</v>
+        <v>0.01090063583621146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001798672561386671</v>
+        <v>0.002252791901997871</v>
       </c>
       <c r="D9" t="n">
-        <v>5.375996505415932</v>
+        <v>4.838701452863814</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -2517,17 +2469,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009585780093216551</v>
+        <v>0.009925056130816201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006943170876998432</v>
+        <v>0.004659485924508484</v>
       </c>
       <c r="D10" t="n">
-        <v>13.80585643716161</v>
+        <v>2.130070782680889</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -2541,17 +2493,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009239156633098686</v>
+        <v>0.007829784030783892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004223197313881303</v>
+        <v>0.002193239529859956</v>
       </c>
       <c r="D11" t="n">
-        <v>2.187710890424538</v>
+        <v>3.569946749872934</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -2565,17 +2517,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.008804632599538637</v>
+        <v>0.007469038311777962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002614051365237703</v>
+        <v>0.0007629565975446013</v>
       </c>
       <c r="D12" t="n">
-        <v>3.368181296975028</v>
+        <v>9.789469599082073</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -2589,17 +2541,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008518182370564242</v>
+        <v>0.007355772010820912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00165997169481991</v>
+        <v>0.0007189339418575967</v>
       </c>
       <c r="D13" t="n">
-        <v>5.131491749063154</v>
+        <v>10.23135683126445</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -2613,17 +2565,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008372685047458955</v>
+        <v>0.007232456798526332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002862637001675994</v>
+        <v>0.001457615645914035</v>
       </c>
       <c r="D14" t="n">
-        <v>2.924805273775285</v>
+        <v>4.961806770346076</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -2637,17 +2589,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007206090700080084</v>
+        <v>0.006878410690493131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001464523764653355</v>
+        <v>0.0006362741681382009</v>
       </c>
       <c r="D15" t="n">
-        <v>4.920399156372961</v>
+        <v>10.81028105825688</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -2661,17 +2613,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006209078421982586</v>
+        <v>0.00687048318827094</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001493445344113817</v>
+        <v>0.002559438634194517</v>
       </c>
       <c r="D16" t="n">
-        <v>4.157525329735865</v>
+        <v>2.684360645679903</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -2685,17 +2637,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005447272686327771</v>
+        <v>0.006267273554009012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001007479685329844</v>
+        <v>0.002022082254481477</v>
       </c>
       <c r="D17" t="n">
-        <v>5.406777623280957</v>
+        <v>3.099400405752567</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2709,17 +2661,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005330620162924855</v>
+        <v>0.005814309490664997</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001646405156671904</v>
+        <v>0.002392262923618838</v>
       </c>
       <c r="D18" t="n">
-        <v>3.237713247064778</v>
+        <v>2.430454081246541</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -2733,17 +2685,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005326327142322855</v>
+        <v>0.005609360693174905</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001795305031501037</v>
+        <v>0.001040255975532233</v>
       </c>
       <c r="D19" t="n">
-        <v>2.966792484252522</v>
+        <v>5.392237009679164</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -2757,17 +2709,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005308141026448663</v>
+        <v>0.005102004527475194</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001992763230715307</v>
+        <v>0.0009671044399762418</v>
       </c>
       <c r="D20" t="n">
-        <v>2.663695469525804</v>
+        <v>5.275492037530253</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -2781,17 +2733,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005145996824130969</v>
+        <v>0.004908871999660639</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002187277318722191</v>
+        <v>0.0008719829550210968</v>
       </c>
       <c r="D21" t="n">
-        <v>2.352684432485647</v>
+        <v>5.629485847786321</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -2805,17 +2757,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004991756239921132</v>
+        <v>0.004514055030705375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002060588675381298</v>
+        <v>0.0007688223826477266</v>
       </c>
       <c r="D22" t="n">
-        <v>2.422478622139969</v>
+        <v>5.871312307579638</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -2829,17 +2781,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.004949801670323815</v>
+        <v>0.004490512246723915</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002213068723458131</v>
+        <v>0.001290593753912736</v>
       </c>
       <c r="D23" t="n">
-        <v>2.236613464246457</v>
+        <v>3.479388800094518</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2857,13 +2809,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004849082100996307</v>
+        <v>0.004192643141971529</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002162462991779841</v>
+        <v>0.001207257572510422</v>
       </c>
       <c r="D24" t="n">
-        <v>2.242378110352828</v>
+        <v>3.472836707817178</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -2877,17 +2829,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.004269577188746548</v>
+        <v>0.004032556107301291</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0009207700201125974</v>
+        <v>0.00103163429914011</v>
       </c>
       <c r="D25" t="n">
-        <v>4.636913372886223</v>
+        <v>3.90886288099734</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -2901,17 +2853,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003730494357850405</v>
+        <v>0.003875501892822657</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003562061264087086</v>
+        <v>0.0009110665951995959</v>
       </c>
       <c r="D26" t="n">
-        <v>10.47255888008332</v>
+        <v>4.253760785034352</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -2925,17 +2877,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.003262231666303906</v>
+        <v>0.003739257071056482</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001319107118079388</v>
+        <v>0.001322882167582336</v>
       </c>
       <c r="D27" t="n">
-        <v>2.473041719793358</v>
+        <v>2.826577375456229</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -2949,17 +2901,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00315738175332414</v>
+        <v>0.003685213311744041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0009481221659089688</v>
+        <v>0.001507479369711071</v>
       </c>
       <c r="D28" t="n">
-        <v>3.33010720113812</v>
+        <v>2.444603183139101</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -2973,17 +2925,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002868555384611848</v>
+        <v>0.003638175386638028</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003771058219584039</v>
+        <v>0.0006481877397042869</v>
       </c>
       <c r="D29" t="n">
-        <v>7.606563335675296</v>
+        <v>5.612755435243871</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -2997,17 +2949,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002855733162182808</v>
+        <v>0.003232177103848286</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0006165818251285114</v>
+        <v>0.0003603671265419705</v>
       </c>
       <c r="D30" t="n">
-        <v>4.631480739446408</v>
+        <v>8.96887417595816</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -3021,17 +2973,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002800879329380696</v>
+        <v>0.002723248825967044</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000267401010684297</v>
+        <v>0.0002766705035296973</v>
       </c>
       <c r="D31" t="n">
-        <v>10.47406134180237</v>
+        <v>9.842575791303439</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -3045,17 +2997,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00271762107612541</v>
+        <v>0.002191618875370106</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0008126242444768127</v>
+        <v>0.001241927327103031</v>
       </c>
       <c r="D32" t="n">
-        <v>3.344211857420627</v>
+        <v>1.764677514349554</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -3069,46 +3021,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0008921289698675085</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001855774269349154</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>4.807055006912584</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>20hz</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>frequency_hz</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" t="inlineStr">
         <is>
           <t>20hz</t>
         </is>
@@ -3188,13 +3116,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.09030439368738186</v>
+        <v>0.08947038215280392</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004489925760796378</v>
+        <v>0.005083358800201473</v>
       </c>
       <c r="G2" t="n">
-        <v>20.11262487892802</v>
+        <v>17.60060811429969</v>
       </c>
     </row>
     <row r="3">
@@ -3215,13 +3143,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.06344041816700996</v>
+        <v>0.0598043314413836</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00453794901849579</v>
+        <v>0.003965517981583669</v>
       </c>
       <c r="G3" t="n">
-        <v>13.97994514900638</v>
+        <v>15.08105143101278</v>
       </c>
     </row>
     <row r="4">
@@ -3238,17 +3166,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.02672276962263834</v>
+        <v>0.01934626971777358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004037648725624495</v>
+        <v>0.005117110359299441</v>
       </c>
       <c r="G4" t="n">
-        <v>6.618382443529869</v>
+        <v>3.780694679697192</v>
       </c>
     </row>
     <row r="5">
@@ -3265,17 +3193,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02175429692920938</v>
+        <v>0.01785408286752348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004843027969895068</v>
+        <v>0.002003337538673498</v>
       </c>
       <c r="G5" t="n">
-        <v>4.491869992437973</v>
+        <v>8.912124592892868</v>
       </c>
     </row>
     <row r="6">
@@ -3292,17 +3220,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01506951510307884</v>
+        <v>0.01737711080385931</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004431425502050816</v>
+        <v>0.003500129330335388</v>
       </c>
       <c r="G6" t="n">
-        <v>3.400594479171556</v>
+        <v>4.964691163364121</v>
       </c>
     </row>
     <row r="7">
@@ -3319,17 +3247,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.014623290053277</v>
+        <v>0.01119049018831471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003869176934412789</v>
+        <v>0.001634222966783054</v>
       </c>
       <c r="G7" t="n">
-        <v>3.779421956384828</v>
+        <v>6.847548920973551</v>
       </c>
     </row>
     <row r="8">
@@ -3346,17 +3274,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.01290782556038326</v>
+        <v>0.009996664125381945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001172687311564787</v>
+        <v>0.001506893360535688</v>
       </c>
       <c r="G8" t="n">
-        <v>11.00695416719232</v>
+        <v>6.633911893214066</v>
       </c>
     </row>
     <row r="9">
@@ -3373,17 +3301,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.0107454712010268</v>
+        <v>0.009145379591010005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001781628378289149</v>
+        <v>0.001887251195291373</v>
       </c>
       <c r="G9" t="n">
-        <v>6.031230204720521</v>
+        <v>4.845847312405561</v>
       </c>
     </row>
     <row r="10">
@@ -3400,17 +3328,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.009258042785978252</v>
+        <v>0.008630382388641101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003555078228972425</v>
+        <v>0.002914212626336436</v>
       </c>
       <c r="G10" t="n">
-        <v>2.604166813787974</v>
+        <v>2.961469830975349</v>
       </c>
     </row>
     <row r="11">
@@ -3427,17 +3355,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.007729896795662848</v>
+        <v>0.008334877817544778</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001507231695719574</v>
+        <v>0.001769702756283999</v>
       </c>
       <c r="G11" t="n">
-        <v>5.128505147923543</v>
+        <v>4.709734835751626</v>
       </c>
     </row>
     <row r="12">
@@ -3454,17 +3382,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.007617973075359097</v>
+        <v>0.007157449673629128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001249879855746127</v>
+        <v>0.00208556742788595</v>
       </c>
       <c r="G12" t="n">
-        <v>6.094915516224839</v>
+        <v>3.43187914192392</v>
       </c>
     </row>
     <row r="13">
@@ -3481,17 +3409,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.007429354893354877</v>
+        <v>0.007104264198398573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001846038158494017</v>
+        <v>0.002194874394543194</v>
       </c>
       <c r="G13" t="n">
-        <v>4.024464291015924</v>
+        <v>3.236737304279361</v>
       </c>
     </row>
     <row r="14">
@@ -3508,17 +3436,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.007025505617517583</v>
+        <v>0.006354681821574208</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001497479239261191</v>
+        <v>0.001253286656350524</v>
       </c>
       <c r="G14" t="n">
-        <v>4.691523273304936</v>
+        <v>5.070373234760245</v>
       </c>
     </row>
     <row r="15">
@@ -3535,17 +3463,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.006940599868053805</v>
+        <v>0.006336957435771789</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001186258812357257</v>
+        <v>0.001193097037751115</v>
       </c>
       <c r="G15" t="n">
-        <v>5.850781707952021</v>
+        <v>5.311306727111681</v>
       </c>
     </row>
     <row r="16">
@@ -3562,17 +3490,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.006716481395553279</v>
+        <v>0.006115930160840832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002495761747397214</v>
+        <v>0.001938746113071593</v>
       </c>
       <c r="G16" t="n">
-        <v>2.691144093027639</v>
+        <v>3.154563959646939</v>
       </c>
     </row>
     <row r="17">
@@ -3593,13 +3521,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1239245165436142</v>
+        <v>0.1335743092130243</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003314878210861789</v>
+        <v>0.01247936018049603</v>
       </c>
       <c r="G17" t="n">
-        <v>37.38422192867763</v>
+        <v>10.70360982013237</v>
       </c>
     </row>
     <row r="18">
@@ -3620,13 +3548,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.08148202457538559</v>
+        <v>0.06996646778779707</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009773299265381443</v>
+        <v>0.009905552146559001</v>
       </c>
       <c r="G18" t="n">
-        <v>8.337199034927441</v>
+        <v>7.063351554671943</v>
       </c>
     </row>
     <row r="19">
@@ -3647,13 +3575,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.03194141729377811</v>
+        <v>0.02742571917860786</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003699617398112866</v>
+        <v>0.001494243597575974</v>
       </c>
       <c r="G19" t="n">
-        <v>8.633684924614581</v>
+        <v>18.35412624945239</v>
       </c>
     </row>
     <row r="20">
@@ -3670,17 +3598,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.02133160897291312</v>
+        <v>0.01905605451338522</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003386163579412957</v>
+        <v>0.004208444717546862</v>
       </c>
       <c r="G20" t="n">
-        <v>6.299620640419523</v>
+        <v>4.528040763735039</v>
       </c>
     </row>
     <row r="21">
@@ -3697,17 +3625,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.01477391007226924</v>
+        <v>0.01723419891648958</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00229551328165675</v>
+        <v>0.004297733926195545</v>
       </c>
       <c r="G21" t="n">
-        <v>6.435966121679435</v>
+        <v>4.010057186386547</v>
       </c>
     </row>
     <row r="22">
@@ -3724,17 +3652,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.01133371709518041</v>
+        <v>0.01181756374615098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002297179485010355</v>
+        <v>0.001615055837217617</v>
       </c>
       <c r="G22" t="n">
-        <v>4.933731922915065</v>
+        <v>7.317078643995035</v>
       </c>
     </row>
     <row r="23">
@@ -3751,17 +3679,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01004535541665919</v>
+        <v>0.01038047325630957</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001189579656822481</v>
+        <v>0.001356663559808088</v>
       </c>
       <c r="G23" t="n">
-        <v>8.444386985922009</v>
+        <v>7.651415612299518</v>
       </c>
     </row>
     <row r="24">
@@ -3778,17 +3706,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.009468625632234986</v>
+        <v>0.01025048204327239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005216803092280523</v>
+        <v>0.004989974677409688</v>
       </c>
       <c r="G24" t="n">
-        <v>1.815021060701983</v>
+        <v>2.054211126073726</v>
       </c>
     </row>
     <row r="25">
@@ -3805,17 +3733,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.008898986056746858</v>
+        <v>0.009899670235698496</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00123312656270037</v>
+        <v>0.003113364655548736</v>
       </c>
       <c r="G25" t="n">
-        <v>7.216545454835524</v>
+        <v>3.179723396943266</v>
       </c>
     </row>
     <row r="26">
@@ -3832,17 +3760,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.007668035830222314</v>
+        <v>0.008927770993022669</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001874908111575101</v>
+        <v>0.002699311693834165</v>
       </c>
       <c r="G26" t="n">
-        <v>4.089797726568693</v>
+        <v>3.307412752402069</v>
       </c>
     </row>
     <row r="27">
@@ -3859,17 +3787,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.007212429462722082</v>
+        <v>0.008153133469123514</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001307833748764806</v>
+        <v>0.001764201659899393</v>
       </c>
       <c r="G27" t="n">
-        <v>5.51474858486258</v>
+        <v>4.621403233208684</v>
       </c>
     </row>
     <row r="28">
@@ -3886,17 +3814,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.007106267740252305</v>
+        <v>0.007950204655173557</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002090798251779346</v>
+        <v>0.001790489010741917</v>
       </c>
       <c r="G28" t="n">
-        <v>3.39881370479796</v>
+        <v>4.440217284386706</v>
       </c>
     </row>
     <row r="29">
@@ -3913,17 +3841,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.006995803296019057</v>
+        <v>0.007393227244433415</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001938535511184421</v>
+        <v>0.001440763860301628</v>
       </c>
       <c r="G29" t="n">
-        <v>3.608789814660958</v>
+        <v>5.131427941707406</v>
       </c>
     </row>
     <row r="30">
@@ -3940,17 +3868,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.006601528438976409</v>
+        <v>0.007164237881727155</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001687693189078829</v>
+        <v>0.001554979350547505</v>
       </c>
       <c r="G30" t="n">
-        <v>3.911545869969952</v>
+        <v>4.607258486500024</v>
       </c>
     </row>
     <row r="31">
@@ -3967,17 +3895,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.005034993748843209</v>
+        <v>0.007062869558926904</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001390047801088362</v>
+        <v>0.00108344121025426</v>
       </c>
       <c r="G31" t="n">
-        <v>3.622147039425989</v>
+        <v>6.518862586594389</v>
       </c>
     </row>
     <row r="32">
@@ -3994,17 +3922,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>current_phase_a_rms</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.08274548117994947</v>
+        <v>0.09205584583735392</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003715491442398745</v>
+        <v>0.01401714263324221</v>
       </c>
       <c r="G32" t="n">
-        <v>22.27034021187961</v>
+        <v>6.567371294726433</v>
       </c>
     </row>
     <row r="33">
@@ -4021,17 +3949,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_rms</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.08181988753255387</v>
+        <v>0.0810782023322784</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01132953086221207</v>
+        <v>0.0131565216606536</v>
       </c>
       <c r="G33" t="n">
-        <v>7.221818476815018</v>
+        <v>6.162581782458199</v>
       </c>
     </row>
     <row r="34">
@@ -4048,17 +3976,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.02115622743082416</v>
+        <v>0.01238945955074899</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003880650409838883</v>
+        <v>0.001903219293073832</v>
       </c>
       <c r="G34" t="n">
-        <v>5.451708007530225</v>
+        <v>6.509704109660509</v>
       </c>
     </row>
     <row r="35">
@@ -4075,17 +4003,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.01216675405835781</v>
+        <v>0.01226762620732598</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002840968109376717</v>
+        <v>0.002776827850427346</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282593385074367</v>
+        <v>4.417840316256865</v>
       </c>
     </row>
     <row r="36">
@@ -4102,17 +4030,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.01163065524823411</v>
+        <v>0.01213723371225801</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003293469966040878</v>
+        <v>0.002129655634859482</v>
       </c>
       <c r="G36" t="n">
-        <v>3.531418247008628</v>
+        <v>5.699126432614311</v>
       </c>
     </row>
     <row r="37">
@@ -4129,17 +4057,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.01062308616979957</v>
+        <v>0.01178506510693582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001234587797924481</v>
+        <v>0.005153776826509512</v>
       </c>
       <c r="G37" t="n">
-        <v>8.604491428429856</v>
+        <v>2.286680746343064</v>
       </c>
     </row>
     <row r="38">
@@ -4156,17 +4084,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.009777349245865291</v>
+        <v>0.01099190334441814</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004716022465388685</v>
+        <v>0.002738007829832694</v>
       </c>
       <c r="G38" t="n">
-        <v>2.073214999604432</v>
+        <v>4.014547759570212</v>
       </c>
     </row>
     <row r="39">
@@ -4183,17 +4111,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.009669711164367321</v>
+        <v>0.01090063583621146</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001798672561386671</v>
+        <v>0.002252791901997871</v>
       </c>
       <c r="G39" t="n">
-        <v>5.375996505415932</v>
+        <v>4.838701452863814</v>
       </c>
     </row>
     <row r="40">
@@ -4210,17 +4138,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.009585780093216551</v>
+        <v>0.009925056130816201</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0006943170876998432</v>
+        <v>0.004659485924508484</v>
       </c>
       <c r="G40" t="n">
-        <v>13.80585643716161</v>
+        <v>2.130070782680889</v>
       </c>
     </row>
     <row r="41">
@@ -4237,17 +4165,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.009239156633098686</v>
+        <v>0.007829784030783892</v>
       </c>
       <c r="F41" t="n">
-        <v>0.004223197313881303</v>
+        <v>0.002193239529859956</v>
       </c>
       <c r="G41" t="n">
-        <v>2.187710890424538</v>
+        <v>3.569946749872934</v>
       </c>
     </row>
     <row r="42">
@@ -4264,17 +4192,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.008804632599538637</v>
+        <v>0.007469038311777962</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002614051365237703</v>
+        <v>0.0007629565975446013</v>
       </c>
       <c r="G42" t="n">
-        <v>3.368181296975028</v>
+        <v>9.789469599082073</v>
       </c>
     </row>
     <row r="43">
@@ -4291,17 +4219,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.008518182370564242</v>
+        <v>0.007355772010820912</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00165997169481991</v>
+        <v>0.0007189339418575967</v>
       </c>
       <c r="G43" t="n">
-        <v>5.131491749063154</v>
+        <v>10.23135683126445</v>
       </c>
     </row>
     <row r="44">
@@ -4318,17 +4246,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.008372685047458955</v>
+        <v>0.007232456798526332</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002862637001675994</v>
+        <v>0.001457615645914035</v>
       </c>
       <c r="G44" t="n">
-        <v>2.924805273775285</v>
+        <v>4.961806770346076</v>
       </c>
     </row>
     <row r="45">
@@ -4345,17 +4273,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.007206090700080084</v>
+        <v>0.006878410690493131</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001464523764653355</v>
+        <v>0.0006362741681382009</v>
       </c>
       <c r="G45" t="n">
-        <v>4.920399156372961</v>
+        <v>10.81028105825688</v>
       </c>
     </row>
     <row r="46">
@@ -4372,17 +4300,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.006209078421982586</v>
+        <v>0.00687048318827094</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001493445344113817</v>
+        <v>0.002559438634194517</v>
       </c>
       <c r="G46" t="n">
-        <v>4.157525329735865</v>
+        <v>2.684360645679903</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4444,826 +4372,801 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006242634280700462</v>
+        <v>0.004710187716018539</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004618382471773321</v>
+        <v>0.00394632276328411</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008804632599538637</v>
+        <v>0.003739257071056482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_current_phase_b_env_time_corr</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02672276962263834</v>
+        <v>0.006336957435771789</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03194141729377811</v>
+        <v>0.008927770993022669</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009585780093216551</v>
+        <v>0.006267273554009012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004164417618181015</v>
+        <v>0.00409939927326536</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003469831829659144</v>
+        <v>0.003497057621920722</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004849082100996307</v>
+        <v>0.003685213311744041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_rms</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007429354893354877</v>
+        <v>0.08947038215280392</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004906414849936353</v>
+        <v>0.1335743092130243</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009239156633098686</v>
+        <v>0.0810782023322784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003017604704660927</v>
+        <v>0.008630382388641101</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001918355551050156</v>
+        <v>0.01025048204327239</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00315738175332414</v>
+        <v>0.007355772010820912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>load_under_load</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006408850378877308</v>
+        <v>0.01737711080385931</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00391393926414022</v>
+        <v>0.01905605451338522</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005145996824130969</v>
+        <v>0.007469038311777962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009258042785978252</v>
+        <v>0.009145379591010005</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006601528438976409</v>
+        <v>0.01723419891648958</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009777349245865291</v>
+        <v>0.01213723371225801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004642638341697072</v>
+        <v>0.004834556544988275</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005034993748843209</v>
+        <v>0.003451071616451398</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004991756239921132</v>
+        <v>0.003232177103848286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006103551637474822</v>
+        <v>0.0598043314413836</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007106267740252305</v>
+        <v>0.06996646778779707</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005447272686327771</v>
+        <v>0.09205584583735392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002765712726702545</v>
+        <v>0.006115930160840832</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002704168274045936</v>
+        <v>0.004290261043976759</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002868555384611848</v>
+        <v>0.004192643141971529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004412877870644307</v>
+        <v>0.00424774008812694</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004522724627114688</v>
+        <v>0.002631362765628965</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003730494357850405</v>
+        <v>0.003875501892822657</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007025505617517583</v>
+        <v>0.005251352450626504</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01477391007226924</v>
+        <v>0.003761132378917233</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01163065524823411</v>
+        <v>0.005814309490664997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006716481395553279</v>
+        <v>0.004348276181978208</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009468625632234986</v>
+        <v>0.003753681503967562</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004949801670323815</v>
+        <v>0.004490512246723915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005215303230591466</v>
+        <v>0.004542299226515254</v>
       </c>
       <c r="D15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002624069130280448</v>
+      </c>
+      <c r="F15" t="n">
         <v>21</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.003957841657029247</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15</v>
-      </c>
       <c r="G15" t="n">
-        <v>0.006209078421982586</v>
+        <v>0.004514055030705375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>current_phase_a_rms</t>
+          <t>current_phase_a_env_harmonic_count</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09030439368738186</v>
+        <v>0.002222427240167349</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1239245165436142</v>
+        <v>0.001518027185887725</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08274548117994947</v>
+        <v>0.002191618875370106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_correlation</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06344041816700996</v>
+        <v>0.006048303256463411</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08148202457538559</v>
+        <v>0.006458056982135013</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08181988753255387</v>
+        <v>0.009925056130816201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.007104264198398573</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.008153133469123514</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.01178506510693582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002977227734054853</v>
+        <v>0.005362686608860113</v>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002278409034898783</v>
+        <v>0.007164237881727155</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00271762107612541</v>
+        <v>0.005609360693174905</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_time_corr</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
-        <v>0.014623290053277</v>
+        <v>0.005059569858465314</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008898986056746858</v>
+        <v>0.005195182895393068</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01216675405835781</v>
+        <v>0.004032556107301291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004287540980962963</v>
+        <v>0.008334877817544778</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004728806368685857</v>
+        <v>0.006683225039643095</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005326327142322855</v>
+        <v>0.01090063583621146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01506951510307884</v>
+        <v>0.007157449673629128</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007668035830222314</v>
+        <v>0.003110465896265891</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008372685047458955</v>
+        <v>0.00687048318827094</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007729896795662848</v>
+        <v>0.006354681821574208</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00449871622500201</v>
+        <v>0.007062869558926904</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004269577188746548</v>
+        <v>0.01099190334441814</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004127919312093435</v>
+        <v>0.00589560173599492</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003926643189022325</v>
+        <v>0.01038047325630957</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002800879329380696</v>
+        <v>0.006878410690493131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02175429692920938</v>
+        <v>0.003390196541462896</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02133160897291312</v>
+        <v>0.002365517306634709</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008518182370564242</v>
+        <v>0.002723248825967044</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01290782556038326</v>
+        <v>0.01785408286752348</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007212429462722082</v>
+        <v>0.02742571917860786</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009669711164367321</v>
+        <v>0.01238945955074899</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001170169610747944</v>
+        <v>0.01934626971777358</v>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0008150005273035091</v>
+        <v>0.009899670235698496</v>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0008921289698675085</v>
+        <v>0.01226762620732598</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>frequency_hz</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007617973075359097</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01004535541665919</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007206090700080084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002579520950130768</v>
+        <v>0.009996664125381945</v>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002640491086261358</v>
+        <v>0.007950204655173557</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002855733162182808</v>
+        <v>0.005102004527475194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004486145513729835</v>
+        <v>0.003881633591173469</v>
       </c>
       <c r="D30" t="n">
         <v>25</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003533852669200965</v>
+        <v>0.00349516563862998</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005308141026448663</v>
+        <v>0.004908871999660639</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003971371292358654</v>
+        <v>0.01119049018831471</v>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002737650164539765</v>
+        <v>0.01181756374615098</v>
       </c>
       <c r="F31" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003262231666303906</v>
+        <v>0.007232456798526332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0107454712010268</v>
+        <v>0.004638591599508209</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01133371709518041</v>
+        <v>0.003743044993270597</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02115622743082416</v>
+        <v>0.003638175386638028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006940599868053805</v>
+        <v>0.005445830249082585</v>
       </c>
       <c r="D33" t="n">
         <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006995803296019057</v>
+        <v>0.007393227244433415</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01062308616979957</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>20</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.004941022122692559</v>
-      </c>
-      <c r="D34" t="n">
-        <v>23</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.003918088030739361</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.005330620162924855</v>
+        <v>0.007829784030783892</v>
       </c>
     </row>
   </sheetData>
@@ -5351,7 +5254,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-31 11:41:54</t>
+          <t>2025-11-04 17:54:52</t>
         </is>
       </c>
     </row>
